--- a/Include/All/Output.xlsx
+++ b/Include/All/Output.xlsx
@@ -54454,7 +54454,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U28"/>
+  <dimension ref="A1:U27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -54602,6 +54602,63 @@
       <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0.8250000000000001</v>
+      </c>
+      <c r="M9">
+        <v>0.7998999999999999</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="2" t="s">
@@ -54623,7 +54680,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1.6662</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -54638,10 +54695,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.8250000000000001</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.7998999999999999</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -54650,7 +54707,7 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>1</v>
+        <v>2.7945</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -54685,10 +54742,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>5.107</v>
       </c>
       <c r="G11">
-        <v>1.6662</v>
+        <v>1.0017</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -54715,7 +54772,7 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <v>2.7945</v>
+        <v>2.1</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -54747,14 +54804,14 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>5.107</v>
       </c>
       <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
         <v>5.107</v>
       </c>
-      <c r="G12">
-        <v>1.0017</v>
-      </c>
       <c r="H12">
         <v>0</v>
       </c>
@@ -54780,7 +54837,7 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -54809,16 +54866,16 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1.6662</v>
       </c>
       <c r="E13">
+        <v>1.0017</v>
+      </c>
+      <c r="F13">
         <v>5.107</v>
       </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
       <c r="G13">
-        <v>5.107</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -54860,7 +54917,7 @@
         <v>0</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>0.078</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -54874,13 +54931,13 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1.6662</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>1.0017</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>5.107</v>
+        <v>0</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -54889,7 +54946,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -54904,10 +54961,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.063</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>4.159</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -54916,16 +54973,16 @@
         <v>0</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>1.049</v>
       </c>
       <c r="U14">
-        <v>0.078</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -54954,7 +55011,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -54963,16 +55020,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.051</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.08099999999999999</v>
       </c>
       <c r="N15">
-        <v>0.063</v>
+        <v>0.713</v>
       </c>
       <c r="O15">
-        <v>4.159</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -54981,13 +55038,13 @@
         <v>0</v>
       </c>
       <c r="R15">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>1.049</v>
+        <v>0</v>
       </c>
       <c r="U15">
         <v>0</v>
@@ -55028,13 +55085,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.051</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.08099999999999999</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0.713</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -55131,7 +55188,7 @@
         <v>34</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.614</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -55149,7 +55206,7 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1.832</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -55161,7 +55218,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>12.936</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -55196,7 +55253,7 @@
         <v>35</v>
       </c>
       <c r="C19">
-        <v>0.614</v>
+        <v>0.1099</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -55214,7 +55271,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.832</v>
+        <v>5.268</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -55223,19 +55280,19 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>1.397</v>
       </c>
       <c r="M19">
-        <v>12.936</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>3.451</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>4.77</v>
       </c>
       <c r="Q19">
         <v>0</v>
@@ -55261,7 +55318,7 @@
         <v>36</v>
       </c>
       <c r="C20">
-        <v>0.1099</v>
+        <v>0</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -55276,10 +55333,10 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.025</v>
       </c>
       <c r="I20">
-        <v>5.268</v>
+        <v>4.915</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -55288,19 +55345,19 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.397</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>10.319</v>
       </c>
       <c r="N20">
-        <v>3.451</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>2.301</v>
       </c>
       <c r="P20">
-        <v>4.77</v>
+        <v>6.688</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -55341,10 +55398,10 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.025</v>
+        <v>3.082</v>
       </c>
       <c r="I21">
-        <v>4.915</v>
+        <v>1.7</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -55356,25 +55413,25 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>10.319</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>8.818999999999997</v>
       </c>
       <c r="O21">
-        <v>2.301</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>6.688</v>
+        <v>5.887</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>9.267999999999999</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>3.555</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -55394,7 +55451,7 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>1.1655</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -55406,40 +55463,40 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>3.082</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>18.962</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>2.91</v>
       </c>
       <c r="N22">
-        <v>8.818999999999997</v>
+        <v>6.513999999999999</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="P22">
-        <v>5.887</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>9.267999999999999</v>
+        <v>3.054</v>
       </c>
       <c r="R22">
-        <v>2.04</v>
+        <v>0</v>
       </c>
       <c r="S22">
-        <v>3.555</v>
+        <v>0</v>
       </c>
       <c r="T22">
         <v>0</v>
@@ -55459,7 +55516,7 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1.1655</v>
+        <v>0</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -55480,31 +55537,31 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>18.962</v>
+        <v>3.709</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>2.91</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>6.513999999999999</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0.89</v>
+        <v>4.321</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>32.077</v>
       </c>
       <c r="Q23">
-        <v>3.054</v>
+        <v>0</v>
       </c>
       <c r="R23">
         <v>0</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>2.847</v>
       </c>
       <c r="T23">
         <v>0</v>
@@ -55536,7 +55593,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>3.315</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -55545,7 +55602,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>3.709</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -55557,10 +55614,10 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>4.321</v>
+        <v>2.142</v>
       </c>
       <c r="P24">
-        <v>32.077</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <v>0</v>
@@ -55569,10 +55626,10 @@
         <v>0</v>
       </c>
       <c r="S24">
-        <v>2.847</v>
+        <v>10.35</v>
       </c>
       <c r="T24">
-        <v>0</v>
+        <v>0.895</v>
       </c>
       <c r="U24">
         <v>0</v>
@@ -55601,7 +55658,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>3.315</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -55622,22 +55679,22 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.142</v>
+        <v>3.355</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>15.353</v>
       </c>
       <c r="R25">
-        <v>0</v>
+        <v>7.465999999999999</v>
       </c>
       <c r="S25">
-        <v>10.35</v>
+        <v>0</v>
       </c>
       <c r="T25">
-        <v>0.895</v>
+        <v>0</v>
       </c>
       <c r="U25">
         <v>0</v>
@@ -55666,7 +55723,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1.111</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -55687,16 +55744,16 @@
         <v>0</v>
       </c>
       <c r="O26">
-        <v>3.355</v>
+        <v>0</v>
       </c>
       <c r="P26">
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>15.353</v>
+        <v>0</v>
       </c>
       <c r="R26">
-        <v>7.465999999999999</v>
+        <v>3.54</v>
       </c>
       <c r="S26">
         <v>0</v>
@@ -55728,10 +55785,10 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>0.078</v>
       </c>
       <c r="H27">
-        <v>1.111</v>
+        <v>0</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -55761,7 +55818,7 @@
         <v>0</v>
       </c>
       <c r="R27">
-        <v>3.54</v>
+        <v>0</v>
       </c>
       <c r="S27">
         <v>0</v>
@@ -55770,65 +55827,6 @@
         <v>0</v>
       </c>
       <c r="U27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21">
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>0.078</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
-      <c r="S28">
-        <v>0</v>
-      </c>
-      <c r="T28">
-        <v>0</v>
-      </c>
-      <c r="U28">
         <v>0</v>
       </c>
     </row>

--- a/Include/All/Output.xlsx
+++ b/Include/All/Output.xlsx
@@ -1846,112 +1846,112 @@
         <v>34</v>
       </c>
       <c r="E18">
-        <v>0.5149561643835616</v>
+        <v>6.658076712328766</v>
       </c>
       <c r="F18">
-        <v>0.5138356164383561</v>
+        <v>7.780728767123287</v>
       </c>
       <c r="G18">
-        <v>0.5388630136986301</v>
+        <v>8.856934246575342</v>
       </c>
       <c r="H18">
-        <v>0.5481424657534246</v>
+        <v>10.25936712328767</v>
       </c>
       <c r="I18">
-        <v>0.5126219178082191</v>
+        <v>13.96604931506849</v>
       </c>
       <c r="J18">
-        <v>0.4723068493150684</v>
+        <v>12.65786849315069</v>
       </c>
       <c r="K18">
-        <v>0.4532821917808219</v>
+        <v>11.39148493150685</v>
       </c>
       <c r="L18">
-        <v>0.4411753424657534</v>
+        <v>10.6506602739726</v>
       </c>
       <c r="M18">
-        <v>0.4306958904109589</v>
+        <v>10.40832328767123</v>
       </c>
       <c r="N18">
-        <v>0.4213753424657534</v>
+        <v>10.63044109589041</v>
       </c>
       <c r="O18">
-        <v>0.4135561643835616</v>
+        <v>11.74995342465753</v>
       </c>
       <c r="P18">
-        <v>0.4040273972602739</v>
+        <v>12.63180821917808</v>
       </c>
       <c r="Q18">
-        <v>0.3966849315068493</v>
+        <v>12.42437534246575</v>
       </c>
       <c r="R18">
-        <v>0.3971534246575342</v>
+        <v>12.53737260273972</v>
       </c>
       <c r="S18">
-        <v>0.3947479452054794</v>
+        <v>12.71380547945206</v>
       </c>
       <c r="T18">
-        <v>0.3913561643835616</v>
+        <v>12.76575890410959</v>
       </c>
       <c r="U18">
-        <v>0.3864191780821918</v>
+        <v>12.73072602739726</v>
       </c>
       <c r="V18">
-        <v>0.3835698630136986</v>
+        <v>12.74106301369863</v>
       </c>
       <c r="W18">
-        <v>0.3783890410958904</v>
+        <v>12.7372602739726</v>
       </c>
       <c r="X18">
-        <v>0.3747561643835616</v>
+        <v>12.84318356164384</v>
       </c>
       <c r="Y18">
-        <v>0.3862821917808219</v>
+        <v>12.91995616438356</v>
       </c>
       <c r="Z18">
-        <v>0.3911041095890411</v>
+        <v>13.03995068493151</v>
       </c>
       <c r="AA18">
-        <v>0.3942082191780821</v>
+        <v>13.04998356164384</v>
       </c>
       <c r="AB18">
-        <v>0.386641095890411</v>
+        <v>13.04420273972603</v>
       </c>
       <c r="AC18">
-        <v>0.3821917808219178</v>
+        <v>13.13620821917808</v>
       </c>
       <c r="AD18">
-        <v>0.3799287671232876</v>
+        <v>13.18455616438356</v>
       </c>
       <c r="AE18">
-        <v>0.3789643835616438</v>
+        <v>13.14582739726027</v>
       </c>
       <c r="AF18">
-        <v>0.3791643835616438</v>
+        <v>13.23796438356164</v>
       </c>
       <c r="AG18">
-        <v>0.3802109589041096</v>
+        <v>13.42981369863013</v>
       </c>
       <c r="AH18">
-        <v>0.3814739726027397</v>
+        <v>13.73521095890411</v>
       </c>
       <c r="AI18">
-        <v>0.3825616438356164</v>
+        <v>14.04886301369863</v>
       </c>
       <c r="AJ18">
-        <v>0.3820191780821918</v>
+        <v>14.24406301369863</v>
       </c>
       <c r="AK18">
-        <v>0.383386301369863</v>
+        <v>14.4002602739726</v>
       </c>
       <c r="AL18">
-        <v>0.3856027397260274</v>
+        <v>14.74334246575342</v>
       </c>
       <c r="AM18">
-        <v>0.3865260273972603</v>
+        <v>15.14911506849315</v>
       </c>
       <c r="AN18">
-        <v>0.3861068493150684</v>
+        <v>15.45928219178082</v>
       </c>
     </row>
     <row r="19" spans="1:40">
@@ -1968,112 +1968,112 @@
         <v>35</v>
       </c>
       <c r="E19">
-        <v>12.87152819229917</v>
+        <v>6.736547989386928</v>
       </c>
       <c r="F19">
-        <v>10.99429893405306</v>
+        <v>6.780668777502846</v>
       </c>
       <c r="G19">
-        <v>11.04441201793344</v>
+        <v>8.088649875971273</v>
       </c>
       <c r="H19">
-        <v>11.37116442881978</v>
+        <v>9.039215539763465</v>
       </c>
       <c r="I19">
-        <v>11.55514735917711</v>
+        <v>9.947315929943905</v>
       </c>
       <c r="J19">
-        <v>11.64021170814519</v>
+        <v>10.55795515882659</v>
       </c>
       <c r="K19">
-        <v>11.74647775008089</v>
+        <v>10.72916575131431</v>
       </c>
       <c r="L19">
-        <v>11.82740348514042</v>
+        <v>10.58964742260259</v>
       </c>
       <c r="M19">
-        <v>11.98588535508882</v>
+        <v>10.56430645733942</v>
       </c>
       <c r="N19">
-        <v>12.24744980706554</v>
+        <v>10.7938329785293</v>
       </c>
       <c r="O19">
-        <v>12.61425122521283</v>
+        <v>11.48663834756872</v>
       </c>
       <c r="P19">
-        <v>12.79228359888906</v>
+        <v>12.01598195713657</v>
       </c>
       <c r="Q19">
-        <v>12.75855632493288</v>
+        <v>12.07082283799662</v>
       </c>
       <c r="R19">
-        <v>12.82918518887041</v>
+        <v>12.24272040205392</v>
       </c>
       <c r="S19">
-        <v>13.0118938834127</v>
+        <v>12.36006426213939</v>
       </c>
       <c r="T19">
-        <v>13.12370504966458</v>
+        <v>12.31071568376943</v>
       </c>
       <c r="U19">
-        <v>13.22675467252015</v>
+        <v>12.25919465519518</v>
       </c>
       <c r="V19">
-        <v>13.31435677745848</v>
+        <v>12.24901492025545</v>
       </c>
       <c r="W19">
-        <v>13.32054746106295</v>
+        <v>12.19337512533746</v>
       </c>
       <c r="X19">
-        <v>13.41718985276962</v>
+        <v>12.18923678427295</v>
       </c>
       <c r="Y19">
-        <v>13.54315124061294</v>
+        <v>12.30351962143847</v>
       </c>
       <c r="Z19">
-        <v>13.58338294398085</v>
+        <v>12.43022045696707</v>
       </c>
       <c r="AA19">
-        <v>13.6569772538832</v>
+        <v>12.51059280349775</v>
       </c>
       <c r="AB19">
-        <v>13.71185794807488</v>
+        <v>12.51345426641634</v>
       </c>
       <c r="AC19">
-        <v>13.79920038167987</v>
+        <v>12.59938862039057</v>
       </c>
       <c r="AD19">
-        <v>13.84946614598167</v>
+        <v>12.63588618285517</v>
       </c>
       <c r="AE19">
-        <v>13.85091657735884</v>
+        <v>12.6380806095756</v>
       </c>
       <c r="AF19">
-        <v>13.91374414220041</v>
+        <v>12.76754338948651</v>
       </c>
       <c r="AG19">
-        <v>13.95205733426091</v>
+        <v>12.97380907464255</v>
       </c>
       <c r="AH19">
-        <v>14.07554078721821</v>
+        <v>13.22308034672935</v>
       </c>
       <c r="AI19">
-        <v>14.16989494245888</v>
+        <v>13.48840931142154</v>
       </c>
       <c r="AJ19">
-        <v>14.23953475451079</v>
+        <v>13.68365580959634</v>
       </c>
       <c r="AK19">
-        <v>14.33482434612125</v>
+        <v>13.93509418318489</v>
       </c>
       <c r="AL19">
-        <v>14.37661070346977</v>
+        <v>14.44280202480785</v>
       </c>
       <c r="AM19">
-        <v>14.39037981263199</v>
+        <v>14.70496076358255</v>
       </c>
       <c r="AN19">
-        <v>14.43258109598491</v>
+        <v>14.9452628567815</v>
       </c>
     </row>
     <row r="20" spans="1:40">
@@ -2090,112 +2090,112 @@
         <v>36</v>
       </c>
       <c r="E20">
-        <v>2.156616543163274</v>
+        <v>1.084565627577777</v>
       </c>
       <c r="F20">
-        <v>1.805895539778638</v>
+        <v>1.107231868995913</v>
       </c>
       <c r="G20">
-        <v>1.765051247231216</v>
+        <v>1.34189302185861</v>
       </c>
       <c r="H20">
-        <v>1.770560567016008</v>
+        <v>1.483562017598251</v>
       </c>
       <c r="I20">
-        <v>1.77814951516947</v>
+        <v>1.649656336346627</v>
       </c>
       <c r="J20">
-        <v>1.773707740843701</v>
+        <v>1.807192147811326</v>
       </c>
       <c r="K20">
-        <v>1.752919082188289</v>
+        <v>1.823078787860388</v>
       </c>
       <c r="L20">
-        <v>1.747524666900445</v>
+        <v>1.783869472360279</v>
       </c>
       <c r="M20">
-        <v>1.764884071806219</v>
+        <v>1.777510431170612</v>
       </c>
       <c r="N20">
-        <v>1.794984066545565</v>
+        <v>1.812971553931601</v>
       </c>
       <c r="O20">
-        <v>1.830735854562328</v>
+        <v>1.89626374700797</v>
       </c>
       <c r="P20">
-        <v>1.847704775606758</v>
+        <v>1.968920517998014</v>
       </c>
       <c r="Q20">
-        <v>1.84256120223251</v>
+        <v>1.994380139428212</v>
       </c>
       <c r="R20">
-        <v>1.845927136360993</v>
+        <v>2.029472688543459</v>
       </c>
       <c r="S20">
-        <v>1.858815050171216</v>
+        <v>2.056982630560433</v>
       </c>
       <c r="T20">
-        <v>1.86082210528123</v>
+        <v>2.05745592260247</v>
       </c>
       <c r="U20">
-        <v>1.857180924776127</v>
+        <v>2.062302728208172</v>
       </c>
       <c r="V20">
-        <v>1.857559797872494</v>
+        <v>2.058303741562926</v>
       </c>
       <c r="W20">
-        <v>1.852680742389228</v>
+        <v>2.046517145038942</v>
       </c>
       <c r="X20">
-        <v>1.857620487567812</v>
+        <v>2.042967976337875</v>
       </c>
       <c r="Y20">
-        <v>1.871481871131378</v>
+        <v>2.066276502724262</v>
       </c>
       <c r="Z20">
-        <v>1.868906507477221</v>
+        <v>2.079085275121071</v>
       </c>
       <c r="AA20">
-        <v>1.874752191807428</v>
+        <v>2.087379687898915</v>
       </c>
       <c r="AB20">
-        <v>1.877937248866119</v>
+        <v>2.083684318458082</v>
       </c>
       <c r="AC20">
-        <v>1.888867863113348</v>
+        <v>2.093424307893051</v>
       </c>
       <c r="AD20">
-        <v>1.896402610103816</v>
+        <v>2.091684736238503</v>
       </c>
       <c r="AE20">
-        <v>1.900325188154983</v>
+        <v>2.087548237614417</v>
       </c>
       <c r="AF20">
-        <v>1.911727607681627</v>
+        <v>2.109148841187441</v>
       </c>
       <c r="AG20">
-        <v>1.921303043383531</v>
+        <v>2.146108845332875</v>
       </c>
       <c r="AH20">
-        <v>1.938810911302829</v>
+        <v>2.186041722732814</v>
       </c>
       <c r="AI20">
-        <v>1.951664872629184</v>
+        <v>2.230755262544718</v>
       </c>
       <c r="AJ20">
-        <v>1.959798683641549</v>
+        <v>2.261716103666999</v>
       </c>
       <c r="AK20">
-        <v>1.973789034768921</v>
+        <v>2.305489309389761</v>
       </c>
       <c r="AL20">
-        <v>1.988057385531173</v>
+        <v>2.371950764673626</v>
       </c>
       <c r="AM20">
-        <v>1.996212609816282</v>
+        <v>2.411405224807131</v>
       </c>
       <c r="AN20">
-        <v>2.005068733816634</v>
+        <v>2.452726543096713</v>
       </c>
     </row>
     <row r="21" spans="1:40">
@@ -2212,112 +2212,112 @@
         <v>37</v>
       </c>
       <c r="E21">
-        <v>3.616702643573265</v>
+        <v>1.645457287769349</v>
       </c>
       <c r="F21">
-        <v>3.471053688732874</v>
+        <v>1.336503602187224</v>
       </c>
       <c r="G21">
-        <v>3.949586487968684</v>
+        <v>1.293578535312934</v>
       </c>
       <c r="H21">
-        <v>4.308601864992218</v>
+        <v>1.379411443914294</v>
       </c>
       <c r="I21">
-        <v>4.626462428128699</v>
+        <v>1.531616781933994</v>
       </c>
       <c r="J21">
-        <v>4.859980796119014</v>
+        <v>1.744569308436774</v>
       </c>
       <c r="K21">
-        <v>4.996430045902295</v>
+        <v>1.8506471786403</v>
       </c>
       <c r="L21">
-        <v>5.048220649977612</v>
+        <v>1.941733757144012</v>
       </c>
       <c r="M21">
-        <v>5.137484807905361</v>
+        <v>1.984123368013267</v>
       </c>
       <c r="N21">
-        <v>5.277290992808449</v>
+        <v>2.02534659034214</v>
       </c>
       <c r="O21">
-        <v>5.434211591843082</v>
+        <v>2.033865656010496</v>
       </c>
       <c r="P21">
-        <v>5.596375525691734</v>
+        <v>2.022452273461978</v>
       </c>
       <c r="Q21">
-        <v>5.731261716401492</v>
+        <v>2.076569256706233</v>
       </c>
       <c r="R21">
-        <v>5.841837810764969</v>
+        <v>2.111607666888704</v>
       </c>
       <c r="S21">
-        <v>5.961309955447406</v>
+        <v>2.142873769829815</v>
       </c>
       <c r="T21">
-        <v>6.065381342073239</v>
+        <v>2.157684443557342</v>
       </c>
       <c r="U21">
-        <v>6.143354662071269</v>
+        <v>2.143103110361384</v>
       </c>
       <c r="V21">
-        <v>6.255792548775786</v>
+        <v>2.140526720484212</v>
       </c>
       <c r="W21">
-        <v>6.348691212767128</v>
+        <v>2.120854618063905</v>
       </c>
       <c r="X21">
-        <v>6.494006491898499</v>
+        <v>2.156768065725194</v>
       </c>
       <c r="Y21">
-        <v>6.633410100503682</v>
+        <v>2.225082015308852</v>
       </c>
       <c r="Z21">
-        <v>6.684827657104902</v>
+        <v>2.239835599977018</v>
       </c>
       <c r="AA21">
-        <v>6.746042877445327</v>
+        <v>2.272326164811997</v>
       </c>
       <c r="AB21">
-        <v>6.811543222267228</v>
+        <v>2.28899666229231</v>
       </c>
       <c r="AC21">
-        <v>6.855855159566326</v>
+        <v>2.305713421596587</v>
       </c>
       <c r="AD21">
-        <v>6.870837100471936</v>
+        <v>2.281250759660638</v>
       </c>
       <c r="AE21">
-        <v>6.942412016498026</v>
+        <v>2.29579272109152</v>
       </c>
       <c r="AF21">
-        <v>7.020611724145244</v>
+        <v>2.311493688856832</v>
       </c>
       <c r="AG21">
-        <v>7.104220128019803</v>
+        <v>2.338428405492501</v>
       </c>
       <c r="AH21">
-        <v>7.196448487710723</v>
+        <v>2.379998099354045</v>
       </c>
       <c r="AI21">
-        <v>7.300298900305064</v>
+        <v>2.418699067982726</v>
       </c>
       <c r="AJ21">
-        <v>7.38847344463433</v>
+        <v>2.457966005734378</v>
       </c>
       <c r="AK21">
-        <v>7.500637697571568</v>
+        <v>2.477945700069342</v>
       </c>
       <c r="AL21">
-        <v>7.602491469529484</v>
+        <v>2.502268100092207</v>
       </c>
       <c r="AM21">
-        <v>7.685698281400264</v>
+        <v>2.517354868322331</v>
       </c>
       <c r="AN21">
-        <v>7.848164393545876</v>
+        <v>2.577074945883988</v>
       </c>
     </row>
     <row r="22" spans="1:40">
@@ -2334,112 +2334,112 @@
         <v>38</v>
       </c>
       <c r="E22">
-        <v>32.46907545494931</v>
+        <v>17.50287932704484</v>
       </c>
       <c r="F22">
-        <v>32.7643905154163</v>
+        <v>18.91977510623768</v>
       </c>
       <c r="G22">
-        <v>33.7169440405882</v>
+        <v>22.68810251795394</v>
       </c>
       <c r="H22">
-        <v>34.46546584948177</v>
+        <v>24.53409923594358</v>
       </c>
       <c r="I22">
-        <v>35.2006172574776</v>
+        <v>27.50399470220792</v>
       </c>
       <c r="J22">
-        <v>35.85072010035768</v>
+        <v>31.21163982214562</v>
       </c>
       <c r="K22">
-        <v>35.82131973510204</v>
+        <v>30.88410003595421</v>
       </c>
       <c r="L22">
-        <v>36.47160749546785</v>
+        <v>30.06256348867879</v>
       </c>
       <c r="M22">
-        <v>37.32477905836146</v>
+        <v>30.06460159124263</v>
       </c>
       <c r="N22">
-        <v>38.11464441016181</v>
+        <v>30.72708878709493</v>
       </c>
       <c r="O22">
-        <v>38.59393526612831</v>
+        <v>31.69684006707822</v>
       </c>
       <c r="P22">
-        <v>39.06387745966242</v>
+        <v>32.82954626177549</v>
       </c>
       <c r="Q22">
-        <v>39.35639795292023</v>
+        <v>33.65772519875203</v>
       </c>
       <c r="R22">
-        <v>39.55072546601505</v>
+        <v>34.41565299917595</v>
       </c>
       <c r="S22">
-        <v>39.62069122999079</v>
+        <v>35.02686375282301</v>
       </c>
       <c r="T22">
-        <v>39.72600335931929</v>
+        <v>35.22658933718455</v>
       </c>
       <c r="U22">
-        <v>39.34684015898184</v>
+        <v>35.63771930807241</v>
       </c>
       <c r="V22">
-        <v>39.38773200012712</v>
+        <v>35.58585097542523</v>
       </c>
       <c r="W22">
-        <v>39.40638432329898</v>
+        <v>35.21286157086004</v>
       </c>
       <c r="X22">
-        <v>39.75685254189468</v>
+        <v>35.12912185926796</v>
       </c>
       <c r="Y22">
-        <v>40.09558961500011</v>
+        <v>35.64257009527478</v>
       </c>
       <c r="Z22">
-        <v>40.2372545791071</v>
+        <v>35.52757013629304</v>
       </c>
       <c r="AA22">
-        <v>40.50913478210167</v>
+        <v>35.50276281567812</v>
       </c>
       <c r="AB22">
-        <v>40.84150279079082</v>
+        <v>35.43180348384957</v>
       </c>
       <c r="AC22">
-        <v>41.2770518160113</v>
+        <v>35.61167146715043</v>
       </c>
       <c r="AD22">
-        <v>41.49378165567209</v>
+        <v>35.45948677723199</v>
       </c>
       <c r="AE22">
-        <v>41.65237929385211</v>
+        <v>35.68879946204997</v>
       </c>
       <c r="AF22">
-        <v>41.72489114947692</v>
+        <v>36.15621149565606</v>
       </c>
       <c r="AG22">
-        <v>41.65108735081559</v>
+        <v>36.88075391338178</v>
       </c>
       <c r="AH22">
-        <v>41.76952692659231</v>
+        <v>37.36458791107986</v>
       </c>
       <c r="AI22">
-        <v>41.9626981971584</v>
+        <v>38.01588782459359</v>
       </c>
       <c r="AJ22">
-        <v>42.17513148937704</v>
+        <v>38.45692304655682</v>
       </c>
       <c r="AK22">
-        <v>42.40966400858335</v>
+        <v>39.10320474202511</v>
       </c>
       <c r="AL22">
-        <v>42.44528191768498</v>
+        <v>40.35190070821968</v>
       </c>
       <c r="AM22">
-        <v>42.38683800326724</v>
+        <v>40.79327734717812</v>
       </c>
       <c r="AN22">
-        <v>42.54143506844009</v>
+        <v>41.3490538990611</v>
       </c>
     </row>
     <row r="23" spans="1:40">
@@ -2456,112 +2456,112 @@
         <v>39</v>
       </c>
       <c r="E23">
-        <v>1.640935872507797</v>
+        <v>0.6418197526518424</v>
       </c>
       <c r="F23">
-        <v>1.860889360935191</v>
+        <v>0.5702451084614404</v>
       </c>
       <c r="G23">
-        <v>2.008610732495076</v>
+        <v>0.6780194313806989</v>
       </c>
       <c r="H23">
-        <v>2.092353621337726</v>
+        <v>0.7749572521311816</v>
       </c>
       <c r="I23">
-        <v>2.1510570179399</v>
+        <v>0.9068065524439465</v>
       </c>
       <c r="J23">
-        <v>2.205953492186905</v>
+        <v>1.036725725663348</v>
       </c>
       <c r="K23">
-        <v>2.220598503756703</v>
+        <v>1.021505455282401</v>
       </c>
       <c r="L23">
-        <v>2.276089172438045</v>
+        <v>0.9987693942764653</v>
       </c>
       <c r="M23">
-        <v>2.343918536117869</v>
+        <v>1.006790492132053</v>
       </c>
       <c r="N23">
-        <v>2.402928173362989</v>
+        <v>1.038039444821369</v>
       </c>
       <c r="O23">
-        <v>2.440518034361942</v>
+        <v>1.059163726262898</v>
       </c>
       <c r="P23">
-        <v>2.475534132445155</v>
+        <v>1.087917984471465</v>
       </c>
       <c r="Q23">
-        <v>2.510488415573306</v>
+        <v>1.115727155780817</v>
       </c>
       <c r="R23">
-        <v>2.532237442557478</v>
+        <v>1.141776546086029</v>
       </c>
       <c r="S23">
-        <v>2.541984475007595</v>
+        <v>1.165391916775749</v>
       </c>
       <c r="T23">
-        <v>2.545375261447057</v>
+        <v>1.175571264654118</v>
       </c>
       <c r="U23">
-        <v>2.510205810066751</v>
+        <v>1.196369338852686</v>
       </c>
       <c r="V23">
-        <v>2.50139757542388</v>
+        <v>1.19620511560886</v>
       </c>
       <c r="W23">
-        <v>2.504138959517625</v>
+        <v>1.177824332028658</v>
       </c>
       <c r="X23">
-        <v>2.52645089194662</v>
+        <v>1.174318395201273</v>
       </c>
       <c r="Y23">
-        <v>2.550312351415561</v>
+        <v>1.197328634495101</v>
       </c>
       <c r="Z23">
-        <v>2.551013226378857</v>
+        <v>1.19455789688442</v>
       </c>
       <c r="AA23">
-        <v>2.564588978406578</v>
+        <v>1.196526990008025</v>
       </c>
       <c r="AB23">
-        <v>2.579376719579889</v>
+        <v>1.193319942005945</v>
       </c>
       <c r="AC23">
-        <v>2.596312880918534</v>
+        <v>1.199651663201486</v>
       </c>
       <c r="AD23">
-        <v>2.598368184630465</v>
+        <v>1.194145778423921</v>
       </c>
       <c r="AE23">
-        <v>2.604623948626338</v>
+        <v>1.198728105732451</v>
       </c>
       <c r="AF23">
-        <v>2.598953089971518</v>
+        <v>1.219890851635876</v>
       </c>
       <c r="AG23">
-        <v>2.58484843420302</v>
+        <v>1.249720156817263</v>
       </c>
       <c r="AH23">
-        <v>2.589399119516031</v>
+        <v>1.264131034587606</v>
       </c>
       <c r="AI23">
-        <v>2.601939968668748</v>
+        <v>1.284262408460384</v>
       </c>
       <c r="AJ23">
-        <v>2.619598087239378</v>
+        <v>1.299913311171834</v>
       </c>
       <c r="AK23">
-        <v>2.640395378191663</v>
+        <v>1.316684700406492</v>
       </c>
       <c r="AL23">
-        <v>2.659698185318869</v>
+        <v>1.343006587078112</v>
       </c>
       <c r="AM23">
-        <v>2.67414439164832</v>
+        <v>1.355488233948962</v>
       </c>
       <c r="AN23">
-        <v>2.695973261233021</v>
+        <v>1.379159953856996</v>
       </c>
     </row>
     <row r="24" spans="1:40">
@@ -2578,112 +2578,112 @@
         <v>40</v>
       </c>
       <c r="E24">
-        <v>12.87812703994734</v>
+        <v>5.859040700610365</v>
       </c>
       <c r="F24">
-        <v>12.35950941264443</v>
+        <v>4.758937870908118</v>
       </c>
       <c r="G24">
-        <v>14.06343887233918</v>
+        <v>4.606092995649255</v>
       </c>
       <c r="H24">
-        <v>15.34179822068631</v>
+        <v>4.911721411947372</v>
       </c>
       <c r="I24">
-        <v>16.47361609914384</v>
+        <v>5.453684595638703</v>
       </c>
       <c r="J24">
-        <v>17.30511359990859</v>
+        <v>6.211952543006105</v>
       </c>
       <c r="K24">
-        <v>17.79097349672292</v>
+        <v>6.589667943810626</v>
       </c>
       <c r="L24">
-        <v>17.97538621861</v>
+        <v>6.914003297088661</v>
       </c>
       <c r="M24">
-        <v>18.29323241145369</v>
+        <v>7.064941554320905</v>
       </c>
       <c r="N24">
-        <v>18.79104547146614</v>
+        <v>7.211726608682666</v>
       </c>
       <c r="O24">
-        <v>19.34979845967312</v>
+        <v>7.24206076129366</v>
       </c>
       <c r="P24">
-        <v>19.92722158432825</v>
+        <v>7.201420707382536</v>
       </c>
       <c r="Q24">
-        <v>20.40751583881487</v>
+        <v>7.394117053729012</v>
       </c>
       <c r="R24">
-        <v>20.80124823296801</v>
+        <v>7.518879618439569</v>
       </c>
       <c r="S24">
-        <v>21.22665712293838</v>
+        <v>7.630209989056348</v>
       </c>
       <c r="T24">
-        <v>21.5972279633619</v>
+        <v>7.682946903480106</v>
       </c>
       <c r="U24">
-        <v>21.87487045145681</v>
+        <v>7.63102661038025</v>
       </c>
       <c r="V24">
-        <v>22.27523219854625</v>
+        <v>7.621852763533422</v>
       </c>
       <c r="W24">
-        <v>22.60601991172686</v>
+        <v>7.551805579930496</v>
       </c>
       <c r="X24">
-        <v>23.12344940757568</v>
+        <v>7.679683922997052</v>
       </c>
       <c r="Y24">
-        <v>23.61982899925562</v>
+        <v>7.922931933143029</v>
       </c>
       <c r="Z24">
-        <v>23.80291339718665</v>
+        <v>7.975465568438949</v>
       </c>
       <c r="AA24">
-        <v>24.02088469922974</v>
+        <v>8.091155925866598</v>
       </c>
       <c r="AB24">
-        <v>24.2541142027046</v>
+        <v>8.150515183601561</v>
       </c>
       <c r="AC24">
-        <v>24.4118973588449</v>
+        <v>8.210039167526324</v>
       </c>
       <c r="AD24">
-        <v>24.46524411065218</v>
+        <v>8.122934061247753</v>
       </c>
       <c r="AE24">
-        <v>24.72010356477276</v>
+        <v>8.174714161845651</v>
       </c>
       <c r="AF24">
-        <v>24.99855215975392</v>
+        <v>8.230621179219918</v>
       </c>
       <c r="AG24">
-        <v>25.29625969969146</v>
+        <v>8.326528622215129</v>
       </c>
       <c r="AH24">
-        <v>25.62466063552625</v>
+        <v>8.474547370594113</v>
       </c>
       <c r="AI24">
-        <v>25.99444464553254</v>
+        <v>8.612351342799238</v>
       </c>
       <c r="AJ24">
-        <v>26.30841101088456</v>
+        <v>8.752170582220002</v>
       </c>
       <c r="AK24">
-        <v>26.7077984200854</v>
+        <v>8.82331301974447</v>
       </c>
       <c r="AL24">
-        <v>27.07047291783619</v>
+        <v>8.909918690234818</v>
       </c>
       <c r="AM24">
-        <v>27.36675049425375</v>
+        <v>8.963638704578551</v>
       </c>
       <c r="AN24">
-        <v>27.94524959636141</v>
+        <v>9.176286196359815</v>
       </c>
     </row>
     <row r="25" spans="1:40">
@@ -2700,112 +2700,112 @@
         <v>41</v>
       </c>
       <c r="E25">
-        <v>3.424088226162588</v>
+        <v>1.557467397150679</v>
       </c>
       <c r="F25">
-        <v>3.287173507343625</v>
+        <v>1.265202049268422</v>
       </c>
       <c r="G25">
-        <v>3.739983998704478</v>
+        <v>1.22499786844863</v>
       </c>
       <c r="H25">
-        <v>4.079608872323712</v>
+        <v>1.306457756236105</v>
       </c>
       <c r="I25">
-        <v>4.380248953100373</v>
+        <v>1.45077167682737</v>
       </c>
       <c r="J25">
-        <v>4.601156398055346</v>
+        <v>1.652496800959551</v>
       </c>
       <c r="K25">
-        <v>4.730177276657823</v>
+        <v>1.752708819740511</v>
       </c>
       <c r="L25">
-        <v>4.779318996397142</v>
+        <v>1.838725496616322</v>
       </c>
       <c r="M25">
-        <v>4.863922608581655</v>
+        <v>1.878819256466046</v>
       </c>
       <c r="N25">
-        <v>4.996268037493618</v>
+        <v>1.917889927008949</v>
       </c>
       <c r="O25">
-        <v>5.144716691506071</v>
+        <v>1.9260142701205</v>
       </c>
       <c r="P25">
-        <v>5.298112512417717</v>
+        <v>1.915324681335595</v>
       </c>
       <c r="Q25">
-        <v>5.425725398439789</v>
+        <v>1.966570686374201</v>
       </c>
       <c r="R25">
-        <v>5.530315434791864</v>
+        <v>1.999777750045248</v>
       </c>
       <c r="S25">
-        <v>5.643272940566162</v>
+        <v>2.029410939089231</v>
       </c>
       <c r="T25">
-        <v>5.741652042140386</v>
+        <v>2.043444663930063</v>
       </c>
       <c r="U25">
-        <v>5.815231676291433</v>
+        <v>2.02973356399842</v>
       </c>
       <c r="V25">
-        <v>5.921477047001474</v>
+        <v>2.027297817924411</v>
       </c>
       <c r="W25">
-        <v>6.009293553620785</v>
+        <v>2.008641080795301</v>
       </c>
       <c r="X25">
-        <v>6.146720737305999</v>
+        <v>2.042574229074398</v>
       </c>
       <c r="Y25">
-        <v>6.278565548108112</v>
+        <v>2.107222704464832</v>
       </c>
       <c r="Z25">
-        <v>6.327167442189063</v>
+        <v>2.12115821700336</v>
       </c>
       <c r="AA25">
-        <v>6.385074011646607</v>
+        <v>2.151874790320796</v>
       </c>
       <c r="AB25">
-        <v>6.447034991004133</v>
+        <v>2.167620663924144</v>
       </c>
       <c r="AC25">
-        <v>6.488976183701332</v>
+        <v>2.183442859090869</v>
       </c>
       <c r="AD25">
-        <v>6.503144028104277</v>
+        <v>2.160302115300941</v>
       </c>
       <c r="AE25">
-        <v>6.570817492928713</v>
+        <v>2.174062729487654</v>
       </c>
       <c r="AF25">
-        <v>6.644711907592277</v>
+        <v>2.188975485464209</v>
       </c>
       <c r="AG25">
-        <v>6.723689763050346</v>
+        <v>2.214535913624754</v>
       </c>
       <c r="AH25">
-        <v>6.810878885558309</v>
+        <v>2.253876528620845</v>
       </c>
       <c r="AI25">
-        <v>6.909080391055399</v>
+        <v>2.290525193156715</v>
       </c>
       <c r="AJ25">
-        <v>6.992482666698639</v>
+        <v>2.327693497218008</v>
       </c>
       <c r="AK25">
-        <v>7.09857056673265</v>
+        <v>2.346635468467609</v>
       </c>
       <c r="AL25">
-        <v>7.194907968574751</v>
+        <v>2.369714768729326</v>
       </c>
       <c r="AM25">
-        <v>7.273603804242411</v>
+        <v>2.38401732333579</v>
       </c>
       <c r="AN25">
-        <v>7.427240179385174</v>
+        <v>2.440545194000984</v>
       </c>
     </row>
     <row r="26" spans="1:40">
@@ -3297,112 +3297,112 @@
         <v>48</v>
       </c>
       <c r="E32">
-        <v>70.37030347976696</v>
+        <v>42.48412813730121</v>
       </c>
       <c r="F32">
-        <v>67.77807986143914</v>
+        <v>43.24032643678161</v>
       </c>
       <c r="G32">
-        <v>71.54707501180917</v>
+        <v>49.49845309400094</v>
       </c>
       <c r="H32">
-        <v>74.69330729019053</v>
+        <v>54.40440318060148</v>
       </c>
       <c r="I32">
-        <v>77.39109985829003</v>
+        <v>63.12307520075579</v>
       </c>
       <c r="J32">
-        <v>79.42105939222171</v>
+        <v>67.59230870729019</v>
       </c>
       <c r="K32">
-        <v>80.24794939379626</v>
+        <v>66.77813021571407</v>
       </c>
       <c r="L32">
-        <v>81.30848905684144</v>
+        <v>65.5217356321839</v>
       </c>
       <c r="M32">
-        <v>82.88806915446386</v>
+        <v>65.49268285309401</v>
       </c>
       <c r="N32">
-        <v>84.79193456148639</v>
+        <v>66.90328524641788</v>
       </c>
       <c r="O32">
-        <v>86.56996542276808</v>
+        <v>69.83904213509683</v>
       </c>
       <c r="P32">
-        <v>88.18476350181074</v>
+        <v>72.4529991182491</v>
       </c>
       <c r="Q32">
-        <v>89.20037509053694</v>
+        <v>73.47147098094787</v>
       </c>
       <c r="R32">
-        <v>90.09946912297276</v>
+        <v>74.76809925995907</v>
       </c>
       <c r="S32">
-        <v>91.02512675169264</v>
+        <v>75.89135688867896</v>
       </c>
       <c r="T32">
-        <v>91.81796608408126</v>
+        <v>76.18660991969767</v>
       </c>
       <c r="U32">
-        <v>91.92551324200915</v>
+        <v>76.45483105022831</v>
       </c>
       <c r="V32">
-        <v>92.6603865218076</v>
+        <v>76.38338378208155</v>
       </c>
       <c r="W32">
-        <v>93.18393868682095</v>
+        <v>75.80693320736893</v>
       </c>
       <c r="X32">
-        <v>94.45195452684617</v>
+        <v>76.01276274602425</v>
       </c>
       <c r="Y32">
-        <v>95.72848382931821</v>
+        <v>77.1347495827429</v>
       </c>
       <c r="Z32">
-        <v>96.19310250354275</v>
+        <v>77.35437647614548</v>
       </c>
       <c r="AA32">
-        <v>96.89474514249724</v>
+        <v>77.60568486852465</v>
       </c>
       <c r="AB32">
-        <v>97.65028483703352</v>
+        <v>77.61387387812943</v>
       </c>
       <c r="AC32">
-        <v>98.43806943788378</v>
+        <v>78.07725573925366</v>
       </c>
       <c r="AD32">
-        <v>98.80194725240119</v>
+        <v>77.87502122500392</v>
       </c>
       <c r="AE32">
-        <v>99.36888401826482</v>
+        <v>78.15189497716896</v>
       </c>
       <c r="AF32">
-        <v>99.93662402771217</v>
+        <v>78.96611717839711</v>
       </c>
       <c r="AG32">
-        <v>100.3519383089277</v>
+        <v>80.29796022673594</v>
       </c>
       <c r="AH32">
-        <v>101.1183549047394</v>
+        <v>81.61308915131475</v>
       </c>
       <c r="AI32">
-        <v>101.997525649504</v>
+        <v>83.11469551251771</v>
       </c>
       <c r="AJ32">
-        <v>102.7853235396001</v>
+        <v>84.20397559439458</v>
       </c>
       <c r="AK32">
-        <v>103.7646892772792</v>
+        <v>85.4242509211148</v>
       </c>
       <c r="AL32">
-        <v>104.4352841757204</v>
+        <v>87.74706499763816</v>
       </c>
       <c r="AM32">
-        <v>104.8680078412848</v>
+        <v>88.98711195087388</v>
       </c>
       <c r="AN32">
-        <v>105.9835970083451</v>
+        <v>90.48116961108487</v>
       </c>
     </row>
     <row r="33" spans="1:40">
@@ -3534,112 +3534,112 @@
         <v>45</v>
       </c>
       <c r="E35">
-        <v>337.0043637537395</v>
+        <v>309.1181884112738</v>
       </c>
       <c r="F35">
-        <v>335.0893579436309</v>
+        <v>310.5516045189734</v>
       </c>
       <c r="G35">
-        <v>336.6008996693434</v>
+        <v>314.5522777515352</v>
       </c>
       <c r="H35">
-        <v>340.3239045504645</v>
+        <v>320.0350004408755</v>
       </c>
       <c r="I35">
-        <v>343.046097118564</v>
+        <v>328.7780724610298</v>
       </c>
       <c r="J35">
-        <v>344.3616114470162</v>
+        <v>332.5328607620847</v>
       </c>
       <c r="K35">
-        <v>348.6485452842072</v>
+        <v>335.178726106125</v>
       </c>
       <c r="L35">
-        <v>354.9889643993072</v>
+        <v>339.2022109746497</v>
       </c>
       <c r="M35">
-        <v>362.0902239489844</v>
+        <v>344.6948376476146</v>
       </c>
       <c r="N35">
-        <v>369.5502688080617</v>
+        <v>351.6616194929932</v>
       </c>
       <c r="O35">
-        <v>375.4927161076995</v>
+        <v>358.7617928200283</v>
       </c>
       <c r="P35">
-        <v>381.6128306250984</v>
+        <v>365.8810662415368</v>
       </c>
       <c r="Q35">
-        <v>386.7186586521807</v>
+        <v>370.9897545425916</v>
       </c>
       <c r="R35">
-        <v>392.1223869311919</v>
+        <v>376.7910170681782</v>
       </c>
       <c r="S35">
-        <v>397.7787514092269</v>
+        <v>382.6449815462132</v>
       </c>
       <c r="T35">
-        <v>404.4922153991497</v>
+        <v>388.8608592347661</v>
       </c>
       <c r="U35">
-        <v>406.6778420091325</v>
+        <v>391.2071598173516</v>
       </c>
       <c r="V35">
-        <v>413.8401125492048</v>
+        <v>397.5631098094788</v>
       </c>
       <c r="W35">
-        <v>420.3670893717525</v>
+        <v>402.9900838923004</v>
       </c>
       <c r="X35">
-        <v>428.7544202802708</v>
+        <v>410.3152284994488</v>
       </c>
       <c r="Y35">
-        <v>437.4542372539757</v>
+        <v>418.8605030074004</v>
       </c>
       <c r="Z35">
-        <v>445.6261162021729</v>
+        <v>426.7873901747756</v>
       </c>
       <c r="AA35">
-        <v>451.8232382931821</v>
+        <v>432.5341780192095</v>
       </c>
       <c r="AB35">
-        <v>460.0220656589513</v>
+        <v>439.9856547000472</v>
       </c>
       <c r="AC35">
-        <v>468.8410831365139</v>
+        <v>448.4802694378838</v>
       </c>
       <c r="AD35">
-        <v>476.1703034167847</v>
+        <v>455.2433773893875</v>
       </c>
       <c r="AE35">
-        <v>461.8346374429224</v>
+        <v>440.6176484018265</v>
       </c>
       <c r="AF35">
-        <v>469.2516925208628</v>
+        <v>448.2811856715477</v>
       </c>
       <c r="AG35">
-        <v>477.6122122815305</v>
+        <v>457.5582341993387</v>
       </c>
       <c r="AH35">
-        <v>486.8717795622737</v>
+        <v>467.366513808849</v>
       </c>
       <c r="AI35">
-        <v>495.6961557864903</v>
+        <v>476.813325649504</v>
       </c>
       <c r="AJ35">
-        <v>505.2510769642575</v>
+        <v>486.6697290190521</v>
       </c>
       <c r="AK35">
-        <v>514.4496207841285</v>
+        <v>496.1091824279641</v>
       </c>
       <c r="AL35">
-        <v>522.7914485592819</v>
+        <v>506.1032293811998</v>
       </c>
       <c r="AM35">
-        <v>530.3474598960794</v>
+        <v>514.4665640056684</v>
       </c>
       <c r="AN35">
-        <v>539.6822271453315</v>
+        <v>524.1797997480712</v>
       </c>
     </row>
     <row r="42" spans="1:40">
@@ -4748,112 +4748,112 @@
         <v>33</v>
       </c>
       <c r="E51">
-        <v>3.514397260273973</v>
+        <v>8.113473972602739</v>
       </c>
       <c r="F51">
-        <v>4.694304109589041</v>
+        <v>6.978890410958904</v>
       </c>
       <c r="G51">
-        <v>4.624657534246575</v>
+        <v>7.317383561643835</v>
       </c>
       <c r="H51">
-        <v>4.928506849315069</v>
+        <v>9.389767123287671</v>
       </c>
       <c r="I51">
-        <v>4.870769863013698</v>
+        <v>11.53986301369863</v>
       </c>
       <c r="J51">
-        <v>4.806671232876712</v>
+        <v>13.00655616438356</v>
       </c>
       <c r="K51">
-        <v>4.469747945205479</v>
+        <v>13.12401917808219</v>
       </c>
       <c r="L51">
-        <v>4.18786301369863</v>
+        <v>12.81855890410959</v>
       </c>
       <c r="M51">
-        <v>3.985594520547945</v>
+        <v>12.6613698630137</v>
       </c>
       <c r="N51">
-        <v>3.883643835616438</v>
+        <v>12.58607945205479</v>
       </c>
       <c r="O51">
-        <v>3.871101369863013</v>
+        <v>12.21206849315068</v>
       </c>
       <c r="P51">
-        <v>3.852202739726027</v>
+        <v>12.7399698630137</v>
       </c>
       <c r="Q51">
-        <v>3.803410958904109</v>
+        <v>13.24608493150685</v>
       </c>
       <c r="R51">
-        <v>3.77246301369863</v>
+        <v>13.40423561643836</v>
       </c>
       <c r="S51">
-        <v>3.704657534246576</v>
+        <v>13.67029589041096</v>
       </c>
       <c r="T51">
-        <v>3.631035616438356</v>
+        <v>13.82948493150685</v>
       </c>
       <c r="U51">
-        <v>3.66632602739726</v>
+        <v>13.58058082191781</v>
       </c>
       <c r="V51">
-        <v>3.719904109589041</v>
+        <v>13.44324657534247</v>
       </c>
       <c r="W51">
-        <v>3.827145205479452</v>
+        <v>13.17099726027397</v>
       </c>
       <c r="X51">
-        <v>3.909638356164383</v>
+        <v>13.24576164383562</v>
       </c>
       <c r="Y51">
-        <v>4.046364383561643</v>
+        <v>13.4823095890411</v>
       </c>
       <c r="Z51">
-        <v>4.09291506849315</v>
+        <v>13.52062465753425</v>
       </c>
       <c r="AA51">
-        <v>4.2444</v>
+        <v>13.37421643835616</v>
       </c>
       <c r="AB51">
-        <v>4.2624</v>
+        <v>13.73356164383561</v>
       </c>
       <c r="AC51">
-        <v>4.141997260273973</v>
+        <v>14.24750410958904</v>
       </c>
       <c r="AD51">
-        <v>4.175205479452054</v>
+        <v>13.85073698630137</v>
       </c>
       <c r="AE51">
-        <v>4.243391780821917</v>
+        <v>13.75102191780822</v>
       </c>
       <c r="AF51">
-        <v>4.265356164383562</v>
+        <v>13.95645479452055</v>
       </c>
       <c r="AG51">
-        <v>4.291468493150685</v>
+        <v>14.26344657534247</v>
       </c>
       <c r="AH51">
-        <v>4.273457534246575</v>
+        <v>14.51184383561644</v>
       </c>
       <c r="AI51">
-        <v>4.195693150684932</v>
+        <v>15.0524</v>
       </c>
       <c r="AJ51">
-        <v>4.029553424657534</v>
+        <v>15.52821095890411</v>
       </c>
       <c r="AK51">
-        <v>3.845101369863014</v>
+        <v>16.04884931506849</v>
       </c>
       <c r="AL51">
-        <v>3.737293150684931</v>
+        <v>16.25088767123288</v>
       </c>
       <c r="AM51">
-        <v>3.884334246575342</v>
+        <v>15.64180273972603</v>
       </c>
       <c r="AN51">
-        <v>3.924178082191781</v>
+        <v>15.82624657534246</v>
       </c>
     </row>
     <row r="52" spans="1:40">
@@ -4870,112 +4870,112 @@
         <v>34</v>
       </c>
       <c r="E52">
-        <v>0.07301369863013699</v>
+        <v>9.151317808219178</v>
       </c>
       <c r="F52">
-        <v>0.1101342465753425</v>
+        <v>9.289684931506848</v>
       </c>
       <c r="G52">
-        <v>0.0455972602739726</v>
+        <v>10.67098630136986</v>
       </c>
       <c r="H52">
-        <v>0.04150958904109589</v>
+        <v>11.9444602739726</v>
       </c>
       <c r="I52">
-        <v>0.0395013698630137</v>
+        <v>15.65558356164383</v>
       </c>
       <c r="J52">
-        <v>0.03507945205479452</v>
+        <v>14.33942739726027</v>
       </c>
       <c r="K52">
-        <v>0.0329945205479452</v>
+        <v>13.06863287671233</v>
       </c>
       <c r="L52">
-        <v>0.0311917808219178</v>
+        <v>12.32627671232877</v>
       </c>
       <c r="M52">
-        <v>0.03021917808219178</v>
+        <v>12.08346849315068</v>
       </c>
       <c r="N52">
-        <v>0.02911232876712328</v>
+        <v>12.30505205479452</v>
       </c>
       <c r="O52">
-        <v>0.02828219178082192</v>
+        <v>13.42557260273973</v>
       </c>
       <c r="P52">
-        <v>0.02715068493150685</v>
+        <v>14.30756164383562</v>
       </c>
       <c r="Q52">
-        <v>0.02552602739726027</v>
+        <v>14.10095342465753</v>
       </c>
       <c r="R52">
-        <v>0.05351506849315068</v>
+        <v>14.21328219178082</v>
       </c>
       <c r="S52">
-        <v>0.09393972602739725</v>
+        <v>14.38970684931507</v>
       </c>
       <c r="T52">
-        <v>0.09619178082191782</v>
+        <v>14.44147123287671</v>
       </c>
       <c r="U52">
-        <v>0.09287945205479452</v>
+        <v>14.40647123287671</v>
       </c>
       <c r="V52">
-        <v>0.08726575342465752</v>
+        <v>14.41647671232877</v>
       </c>
       <c r="W52">
-        <v>0.1092739726027397</v>
+        <v>14.41256712328767</v>
       </c>
       <c r="X52">
-        <v>0.1056547945205479</v>
+        <v>14.51861095890411</v>
       </c>
       <c r="Y52">
-        <v>0.1959890410958904</v>
+        <v>14.59476164383562</v>
       </c>
       <c r="Z52">
-        <v>0.2336493150684931</v>
+        <v>14.71447945205479</v>
       </c>
       <c r="AA52">
-        <v>0.3142876712328767</v>
+        <v>14.72403561643835</v>
       </c>
       <c r="AB52">
-        <v>0.3229890410958904</v>
+        <v>14.71854794520548</v>
       </c>
       <c r="AC52">
-        <v>0.3176301369863013</v>
+        <v>14.81125479452055</v>
       </c>
       <c r="AD52">
-        <v>0.3189123287671233</v>
+        <v>14.86038630136986</v>
       </c>
       <c r="AE52">
-        <v>0.3134712328767123</v>
+        <v>14.82147945205479</v>
       </c>
       <c r="AF52">
-        <v>0.277172602739726</v>
+        <v>14.91370684931507</v>
       </c>
       <c r="AG52">
-        <v>0.2554</v>
+        <v>15.10539452054794</v>
       </c>
       <c r="AH52">
-        <v>0.2397452054794521</v>
+        <v>15.41077534246575</v>
       </c>
       <c r="AI52">
-        <v>0.2193123287671233</v>
+        <v>15.72406301369863</v>
       </c>
       <c r="AJ52">
-        <v>0.2852109589041096</v>
+        <v>15.91892054794521</v>
       </c>
       <c r="AK52">
-        <v>0.2856630136986301</v>
+        <v>16.07471232876712</v>
       </c>
       <c r="AL52">
-        <v>0.2992027397260274</v>
+        <v>16.41768493150685</v>
       </c>
       <c r="AM52">
-        <v>0.2891342465753425</v>
+        <v>16.82367945205479</v>
       </c>
       <c r="AN52">
-        <v>0.3483095890410959</v>
+        <v>17.13365205479452</v>
       </c>
     </row>
     <row r="53" spans="1:40">
@@ -6321,112 +6321,112 @@
         <v>48</v>
       </c>
       <c r="E66">
-        <v>3.704546699875466</v>
+        <v>17.38192752179327</v>
       </c>
       <c r="F66">
-        <v>4.910240170788115</v>
+        <v>16.37437715708948</v>
       </c>
       <c r="G66">
-        <v>4.775932076143034</v>
+        <v>18.09404714463618</v>
       </c>
       <c r="H66">
-        <v>5.075022665006226</v>
+        <v>21.43923362391033</v>
       </c>
       <c r="I66">
-        <v>5.014920583526061</v>
+        <v>27.30009592599181</v>
       </c>
       <c r="J66">
-        <v>4.946213591887563</v>
+        <v>27.45044646859989</v>
       </c>
       <c r="K66">
-        <v>4.610706884895925</v>
+        <v>26.30061647393702</v>
       </c>
       <c r="L66">
-        <v>4.32789841665184</v>
+        <v>25.25367923856965</v>
       </c>
       <c r="M66">
-        <v>4.124877922077921</v>
+        <v>24.85390257961217</v>
       </c>
       <c r="N66">
-        <v>4.022213912115281</v>
+        <v>25.00058925458103</v>
       </c>
       <c r="O66">
-        <v>4.009177904287492</v>
+        <v>25.74743543853407</v>
       </c>
       <c r="P66">
-        <v>3.993752997687243</v>
+        <v>27.16193107987903</v>
       </c>
       <c r="Q66">
-        <v>3.942097633872975</v>
+        <v>27.46019900373599</v>
       </c>
       <c r="R66">
-        <v>3.939088204945738</v>
+        <v>27.73062793097314</v>
       </c>
       <c r="S66">
-        <v>3.910961252446183</v>
+        <v>28.17236673189824</v>
       </c>
       <c r="T66">
-        <v>3.839692439067781</v>
+        <v>28.38342120619107</v>
       </c>
       <c r="U66">
-        <v>3.871408290339796</v>
+        <v>28.09925486568226</v>
       </c>
       <c r="V66">
-        <v>3.919169151396548</v>
+        <v>27.97172257605408</v>
       </c>
       <c r="W66">
-        <v>4.047615050702722</v>
+        <v>27.69476025618217</v>
       </c>
       <c r="X66">
-        <v>4.126065611101227</v>
+        <v>27.87514506315602</v>
       </c>
       <c r="Y66">
-        <v>4.352385447429282</v>
+        <v>28.18710325564846</v>
       </c>
       <c r="Z66">
-        <v>4.436107881159934</v>
+        <v>28.34464760718733</v>
       </c>
       <c r="AA66">
-        <v>4.667724853228962</v>
+        <v>28.2072892367906</v>
       </c>
       <c r="AB66">
-        <v>4.694014552570716</v>
+        <v>28.56073510051592</v>
       </c>
       <c r="AC66">
-        <v>4.567877174879914</v>
+        <v>29.16700868172923</v>
       </c>
       <c r="AD66">
-        <v>4.603403344600603</v>
+        <v>28.82040882405266</v>
       </c>
       <c r="AE66">
-        <v>4.666671944493861</v>
+        <v>28.68231030065824</v>
       </c>
       <c r="AF66">
-        <v>4.651739939512542</v>
+        <v>28.97937281622487</v>
       </c>
       <c r="AG66">
-        <v>4.655198327699696</v>
+        <v>29.47717093043942</v>
       </c>
       <c r="AH66">
-        <v>4.620557302971001</v>
+        <v>30.02997374132717</v>
       </c>
       <c r="AI66">
-        <v>4.521380857498665</v>
+        <v>30.88283839174524</v>
       </c>
       <c r="AJ66">
-        <v>4.420396121686531</v>
+        <v>31.5527632449742</v>
       </c>
       <c r="AK66">
-        <v>4.23577238925458</v>
+        <v>32.22856964952855</v>
       </c>
       <c r="AL66">
-        <v>4.140995801458814</v>
+        <v>32.77307251378758</v>
       </c>
       <c r="AM66">
-        <v>4.277336488169364</v>
+        <v>32.5693501867995</v>
       </c>
       <c r="AN66">
-        <v>4.37546400996264</v>
+        <v>33.06287496886675</v>
       </c>
     </row>
     <row r="67" spans="1:40">
@@ -6558,112 +6558,112 @@
         <v>45</v>
       </c>
       <c r="E69">
-        <v>3.704546699875466</v>
+        <v>17.38192752179327</v>
       </c>
       <c r="F69">
-        <v>4.910240170788115</v>
+        <v>16.37437715708948</v>
       </c>
       <c r="G69">
-        <v>4.775932076143034</v>
+        <v>18.09404714463618</v>
       </c>
       <c r="H69">
-        <v>5.075022665006226</v>
+        <v>21.43923362391033</v>
       </c>
       <c r="I69">
-        <v>5.014920583526061</v>
+        <v>27.30009592599181</v>
       </c>
       <c r="J69">
-        <v>4.946213591887563</v>
+        <v>27.45044646859989</v>
       </c>
       <c r="K69">
-        <v>4.610706884895925</v>
+        <v>26.30061647393702</v>
       </c>
       <c r="L69">
-        <v>4.32789841665184</v>
+        <v>25.25367923856965</v>
       </c>
       <c r="M69">
-        <v>4.124877922077921</v>
+        <v>24.85390257961217</v>
       </c>
       <c r="N69">
-        <v>4.022213912115281</v>
+        <v>25.00058925458103</v>
       </c>
       <c r="O69">
-        <v>4.009177904287492</v>
+        <v>25.74743543853407</v>
       </c>
       <c r="P69">
-        <v>3.993752997687243</v>
+        <v>27.16193107987903</v>
       </c>
       <c r="Q69">
-        <v>3.942097633872975</v>
+        <v>27.46019900373599</v>
       </c>
       <c r="R69">
-        <v>3.939088204945738</v>
+        <v>27.73062793097314</v>
       </c>
       <c r="S69">
-        <v>3.910961252446183</v>
+        <v>28.17236673189824</v>
       </c>
       <c r="T69">
-        <v>3.839692439067781</v>
+        <v>28.38342120619107</v>
       </c>
       <c r="U69">
-        <v>3.871408290339796</v>
+        <v>28.09925486568226</v>
       </c>
       <c r="V69">
-        <v>3.919169151396548</v>
+        <v>27.97172257605408</v>
       </c>
       <c r="W69">
-        <v>4.047615050702722</v>
+        <v>27.69476025618217</v>
       </c>
       <c r="X69">
-        <v>4.126065611101227</v>
+        <v>27.87514506315602</v>
       </c>
       <c r="Y69">
-        <v>4.352385447429282</v>
+        <v>28.18710325564846</v>
       </c>
       <c r="Z69">
-        <v>4.436107881159934</v>
+        <v>28.34464760718733</v>
       </c>
       <c r="AA69">
-        <v>4.667724853228962</v>
+        <v>28.2072892367906</v>
       </c>
       <c r="AB69">
-        <v>4.694014552570716</v>
+        <v>28.56073510051592</v>
       </c>
       <c r="AC69">
-        <v>4.567877174879914</v>
+        <v>29.16700868172923</v>
       </c>
       <c r="AD69">
-        <v>4.603403344600603</v>
+        <v>28.82040882405266</v>
       </c>
       <c r="AE69">
-        <v>4.666671944493861</v>
+        <v>28.68231030065824</v>
       </c>
       <c r="AF69">
-        <v>4.651739939512542</v>
+        <v>28.97937281622487</v>
       </c>
       <c r="AG69">
-        <v>4.655198327699696</v>
+        <v>29.47717093043942</v>
       </c>
       <c r="AH69">
-        <v>4.620557302971001</v>
+        <v>30.02997374132717</v>
       </c>
       <c r="AI69">
-        <v>4.521380857498665</v>
+        <v>30.88283839174524</v>
       </c>
       <c r="AJ69">
-        <v>4.420396121686531</v>
+        <v>31.5527632449742</v>
       </c>
       <c r="AK69">
-        <v>4.23577238925458</v>
+        <v>32.22856964952855</v>
       </c>
       <c r="AL69">
-        <v>4.140995801458814</v>
+        <v>32.77307251378758</v>
       </c>
       <c r="AM69">
-        <v>4.277336488169364</v>
+        <v>32.5693501867995</v>
       </c>
       <c r="AN69">
-        <v>4.37546400996264</v>
+        <v>33.06287496886675</v>
       </c>
     </row>
     <row r="76" spans="1:40">
@@ -7772,112 +7772,112 @@
         <v>33</v>
       </c>
       <c r="E85">
-        <v>3.514397260273973</v>
+        <v>8.113473972602739</v>
       </c>
       <c r="F85">
-        <v>4.694304109589041</v>
+        <v>6.978890410958904</v>
       </c>
       <c r="G85">
-        <v>4.624657534246575</v>
+        <v>7.317383561643835</v>
       </c>
       <c r="H85">
-        <v>4.928506849315069</v>
+        <v>9.389767123287671</v>
       </c>
       <c r="I85">
-        <v>4.870769863013698</v>
+        <v>11.53986301369863</v>
       </c>
       <c r="J85">
-        <v>4.806671232876712</v>
+        <v>13.00655616438356</v>
       </c>
       <c r="K85">
-        <v>4.469747945205479</v>
+        <v>13.12401917808219</v>
       </c>
       <c r="L85">
-        <v>4.18786301369863</v>
+        <v>12.81855890410959</v>
       </c>
       <c r="M85">
-        <v>3.985594520547945</v>
+        <v>12.6613698630137</v>
       </c>
       <c r="N85">
-        <v>3.883643835616438</v>
+        <v>12.58607945205479</v>
       </c>
       <c r="O85">
-        <v>3.871101369863013</v>
+        <v>12.21206849315068</v>
       </c>
       <c r="P85">
-        <v>3.852202739726027</v>
+        <v>12.7399698630137</v>
       </c>
       <c r="Q85">
-        <v>3.803410958904109</v>
+        <v>13.24608493150685</v>
       </c>
       <c r="R85">
-        <v>3.77246301369863</v>
+        <v>13.40423561643836</v>
       </c>
       <c r="S85">
-        <v>3.704657534246576</v>
+        <v>13.67029589041096</v>
       </c>
       <c r="T85">
-        <v>3.631035616438356</v>
+        <v>13.82948493150685</v>
       </c>
       <c r="U85">
-        <v>3.66632602739726</v>
+        <v>13.58058082191781</v>
       </c>
       <c r="V85">
-        <v>3.719904109589041</v>
+        <v>13.44324657534247</v>
       </c>
       <c r="W85">
-        <v>3.827145205479452</v>
+        <v>13.17099726027397</v>
       </c>
       <c r="X85">
-        <v>3.909638356164383</v>
+        <v>13.24576164383562</v>
       </c>
       <c r="Y85">
-        <v>4.046364383561643</v>
+        <v>13.4823095890411</v>
       </c>
       <c r="Z85">
-        <v>4.09291506849315</v>
+        <v>13.52062465753425</v>
       </c>
       <c r="AA85">
-        <v>4.2444</v>
+        <v>13.37421643835616</v>
       </c>
       <c r="AB85">
-        <v>4.2624</v>
+        <v>13.73356164383561</v>
       </c>
       <c r="AC85">
-        <v>4.141997260273973</v>
+        <v>14.24750410958904</v>
       </c>
       <c r="AD85">
-        <v>4.175205479452054</v>
+        <v>13.85073698630137</v>
       </c>
       <c r="AE85">
-        <v>4.243391780821917</v>
+        <v>13.75102191780822</v>
       </c>
       <c r="AF85">
-        <v>4.265356164383562</v>
+        <v>13.95645479452055</v>
       </c>
       <c r="AG85">
-        <v>4.291468493150685</v>
+        <v>14.26344657534247</v>
       </c>
       <c r="AH85">
-        <v>4.273457534246575</v>
+        <v>14.51184383561644</v>
       </c>
       <c r="AI85">
-        <v>4.195693150684932</v>
+        <v>15.0524</v>
       </c>
       <c r="AJ85">
-        <v>4.029553424657534</v>
+        <v>15.52821095890411</v>
       </c>
       <c r="AK85">
-        <v>3.845101369863014</v>
+        <v>16.04884931506849</v>
       </c>
       <c r="AL85">
-        <v>3.737293150684931</v>
+        <v>16.25088767123288</v>
       </c>
       <c r="AM85">
-        <v>3.884334246575342</v>
+        <v>15.64180273972603</v>
       </c>
       <c r="AN85">
-        <v>3.924178082191781</v>
+        <v>15.82624657534246</v>
       </c>
     </row>
     <row r="86" spans="1:40">
@@ -7894,112 +7894,112 @@
         <v>34</v>
       </c>
       <c r="E86">
-        <v>0.5879698630136986</v>
+        <v>15.80939452054794</v>
       </c>
       <c r="F86">
-        <v>0.6239698630136985</v>
+        <v>17.07041369863014</v>
       </c>
       <c r="G86">
-        <v>0.5844602739726027</v>
+        <v>19.52792054794521</v>
       </c>
       <c r="H86">
-        <v>0.5896520547945205</v>
+        <v>22.20382739726027</v>
       </c>
       <c r="I86">
-        <v>0.5521232876712329</v>
+        <v>29.62163287671233</v>
       </c>
       <c r="J86">
-        <v>0.507386301369863</v>
+        <v>26.99729589041096</v>
       </c>
       <c r="K86">
-        <v>0.4862767123287671</v>
+        <v>24.46011780821917</v>
       </c>
       <c r="L86">
-        <v>0.4723671232876712</v>
+        <v>22.97693698630137</v>
       </c>
       <c r="M86">
-        <v>0.4609150684931507</v>
+        <v>22.49179178082192</v>
       </c>
       <c r="N86">
-        <v>0.4504876712328766</v>
+        <v>22.93549315068493</v>
       </c>
       <c r="O86">
-        <v>0.4418383561643835</v>
+        <v>25.17552602739726</v>
       </c>
       <c r="P86">
-        <v>0.4311780821917808</v>
+        <v>26.9393698630137</v>
       </c>
       <c r="Q86">
-        <v>0.4222109589041095</v>
+        <v>26.52532876712328</v>
       </c>
       <c r="R86">
-        <v>0.4506684931506849</v>
+        <v>26.75065479452054</v>
       </c>
       <c r="S86">
-        <v>0.4886876712328767</v>
+        <v>27.10351232876712</v>
       </c>
       <c r="T86">
-        <v>0.4875479452054794</v>
+        <v>27.2072301369863</v>
       </c>
       <c r="U86">
-        <v>0.4792986301369863</v>
+        <v>27.13719726027397</v>
       </c>
       <c r="V86">
-        <v>0.4708356164383561</v>
+        <v>27.15753972602739</v>
       </c>
       <c r="W86">
-        <v>0.4876630136986301</v>
+        <v>27.14982739726027</v>
       </c>
       <c r="X86">
-        <v>0.4804109589041096</v>
+        <v>27.36179452054794</v>
       </c>
       <c r="Y86">
-        <v>0.5822712328767123</v>
+        <v>27.51471780821917</v>
       </c>
       <c r="Z86">
-        <v>0.6247534246575341</v>
+        <v>27.7544301369863</v>
       </c>
       <c r="AA86">
-        <v>0.7084958904109587</v>
+        <v>27.77401917808219</v>
       </c>
       <c r="AB86">
-        <v>0.7096301369863013</v>
+        <v>27.76275068493151</v>
       </c>
       <c r="AC86">
-        <v>0.6998219178082192</v>
+        <v>27.94746301369863</v>
       </c>
       <c r="AD86">
-        <v>0.6988410958904109</v>
+        <v>28.04494246575342</v>
       </c>
       <c r="AE86">
-        <v>0.692435616438356</v>
+        <v>27.96730684931507</v>
       </c>
       <c r="AF86">
-        <v>0.6563369863013697</v>
+        <v>28.15167123287671</v>
       </c>
       <c r="AG86">
-        <v>0.6356109589041096</v>
+        <v>28.53520821917808</v>
       </c>
       <c r="AH86">
-        <v>0.6212191780821917</v>
+        <v>29.14598630136986</v>
       </c>
       <c r="AI86">
-        <v>0.6018739726027397</v>
+        <v>29.77292602739726</v>
       </c>
       <c r="AJ86">
-        <v>0.6672301369863014</v>
+        <v>30.16298356164383</v>
       </c>
       <c r="AK86">
-        <v>0.6690493150684931</v>
+        <v>30.47497260273972</v>
       </c>
       <c r="AL86">
-        <v>0.6848054794520548</v>
+        <v>31.16102739726027</v>
       </c>
       <c r="AM86">
-        <v>0.6756602739726028</v>
+        <v>31.97279452054794</v>
       </c>
       <c r="AN86">
-        <v>0.7344164383561644</v>
+        <v>32.59293424657534</v>
       </c>
     </row>
     <row r="87" spans="1:40">
@@ -8016,112 +8016,112 @@
         <v>35</v>
       </c>
       <c r="E87">
-        <v>12.87152819229917</v>
+        <v>6.736547989386928</v>
       </c>
       <c r="F87">
-        <v>10.99429893405306</v>
+        <v>6.780668777502846</v>
       </c>
       <c r="G87">
-        <v>11.04441201793344</v>
+        <v>8.088649875971273</v>
       </c>
       <c r="H87">
-        <v>11.37116442881978</v>
+        <v>9.039215539763465</v>
       </c>
       <c r="I87">
-        <v>11.55514735917711</v>
+        <v>9.947315929943905</v>
       </c>
       <c r="J87">
-        <v>11.64021170814519</v>
+        <v>10.55795515882659</v>
       </c>
       <c r="K87">
-        <v>11.74647775008089</v>
+        <v>10.72916575131431</v>
       </c>
       <c r="L87">
-        <v>11.82740348514042</v>
+        <v>10.58964742260259</v>
       </c>
       <c r="M87">
-        <v>11.98588535508882</v>
+        <v>10.56430645733942</v>
       </c>
       <c r="N87">
-        <v>12.24744980706554</v>
+        <v>10.7938329785293</v>
       </c>
       <c r="O87">
-        <v>12.61425122521283</v>
+        <v>11.48663834756872</v>
       </c>
       <c r="P87">
-        <v>12.79228359888906</v>
+        <v>12.01598195713657</v>
       </c>
       <c r="Q87">
-        <v>12.75855632493288</v>
+        <v>12.07082283799662</v>
       </c>
       <c r="R87">
-        <v>12.82918518887041</v>
+        <v>12.24272040205392</v>
       </c>
       <c r="S87">
-        <v>13.0118938834127</v>
+        <v>12.36006426213939</v>
       </c>
       <c r="T87">
-        <v>13.12370504966458</v>
+        <v>12.31071568376943</v>
       </c>
       <c r="U87">
-        <v>13.22675467252015</v>
+        <v>12.25919465519518</v>
       </c>
       <c r="V87">
-        <v>13.31435677745848</v>
+        <v>12.24901492025545</v>
       </c>
       <c r="W87">
-        <v>13.32054746106295</v>
+        <v>12.19337512533746</v>
       </c>
       <c r="X87">
-        <v>13.41718985276962</v>
+        <v>12.18923678427295</v>
       </c>
       <c r="Y87">
-        <v>13.54315124061294</v>
+        <v>12.30351962143847</v>
       </c>
       <c r="Z87">
-        <v>13.58338294398085</v>
+        <v>12.43022045696707</v>
       </c>
       <c r="AA87">
-        <v>13.6569772538832</v>
+        <v>12.51059280349775</v>
       </c>
       <c r="AB87">
-        <v>13.71185794807488</v>
+        <v>12.51345426641634</v>
       </c>
       <c r="AC87">
-        <v>13.79920038167987</v>
+        <v>12.59938862039057</v>
       </c>
       <c r="AD87">
-        <v>13.84946614598167</v>
+        <v>12.63588618285517</v>
       </c>
       <c r="AE87">
-        <v>13.85091657735884</v>
+        <v>12.6380806095756</v>
       </c>
       <c r="AF87">
-        <v>13.91374414220041</v>
+        <v>12.76754338948651</v>
       </c>
       <c r="AG87">
-        <v>13.95205733426091</v>
+        <v>12.97380907464255</v>
       </c>
       <c r="AH87">
-        <v>14.07554078721821</v>
+        <v>13.22308034672935</v>
       </c>
       <c r="AI87">
-        <v>14.16989494245888</v>
+        <v>13.48840931142154</v>
       </c>
       <c r="AJ87">
-        <v>14.23953475451079</v>
+        <v>13.68365580959634</v>
       </c>
       <c r="AK87">
-        <v>14.33482434612125</v>
+        <v>13.93509418318489</v>
       </c>
       <c r="AL87">
-        <v>14.37661070346977</v>
+        <v>14.44280202480785</v>
       </c>
       <c r="AM87">
-        <v>14.39037981263199</v>
+        <v>14.70496076358255</v>
       </c>
       <c r="AN87">
-        <v>14.43258109598491</v>
+        <v>14.9452628567815</v>
       </c>
     </row>
     <row r="88" spans="1:40">
@@ -8138,112 +8138,112 @@
         <v>36</v>
       </c>
       <c r="E88">
-        <v>2.156616543163274</v>
+        <v>1.084565627577777</v>
       </c>
       <c r="F88">
-        <v>1.805895539778638</v>
+        <v>1.107231868995913</v>
       </c>
       <c r="G88">
-        <v>1.765051247231216</v>
+        <v>1.34189302185861</v>
       </c>
       <c r="H88">
-        <v>1.770560567016008</v>
+        <v>1.483562017598251</v>
       </c>
       <c r="I88">
-        <v>1.77814951516947</v>
+        <v>1.649656336346627</v>
       </c>
       <c r="J88">
-        <v>1.773707740843701</v>
+        <v>1.807192147811326</v>
       </c>
       <c r="K88">
-        <v>1.752919082188289</v>
+        <v>1.823078787860388</v>
       </c>
       <c r="L88">
-        <v>1.747524666900445</v>
+        <v>1.783869472360279</v>
       </c>
       <c r="M88">
-        <v>1.764884071806219</v>
+        <v>1.777510431170612</v>
       </c>
       <c r="N88">
-        <v>1.794984066545565</v>
+        <v>1.812971553931601</v>
       </c>
       <c r="O88">
-        <v>1.830735854562328</v>
+        <v>1.89626374700797</v>
       </c>
       <c r="P88">
-        <v>1.847704775606758</v>
+        <v>1.968920517998014</v>
       </c>
       <c r="Q88">
-        <v>1.84256120223251</v>
+        <v>1.994380139428212</v>
       </c>
       <c r="R88">
-        <v>1.845927136360993</v>
+        <v>2.029472688543459</v>
       </c>
       <c r="S88">
-        <v>1.858815050171216</v>
+        <v>2.056982630560433</v>
       </c>
       <c r="T88">
-        <v>1.86082210528123</v>
+        <v>2.05745592260247</v>
       </c>
       <c r="U88">
-        <v>1.857180924776127</v>
+        <v>2.062302728208172</v>
       </c>
       <c r="V88">
-        <v>1.857559797872494</v>
+        <v>2.058303741562926</v>
       </c>
       <c r="W88">
-        <v>1.852680742389228</v>
+        <v>2.046517145038942</v>
       </c>
       <c r="X88">
-        <v>1.857620487567812</v>
+        <v>2.042967976337875</v>
       </c>
       <c r="Y88">
-        <v>1.871481871131378</v>
+        <v>2.066276502724262</v>
       </c>
       <c r="Z88">
-        <v>1.868906507477221</v>
+        <v>2.079085275121071</v>
       </c>
       <c r="AA88">
-        <v>1.874752191807428</v>
+        <v>2.087379687898915</v>
       </c>
       <c r="AB88">
-        <v>1.877937248866119</v>
+        <v>2.083684318458082</v>
       </c>
       <c r="AC88">
-        <v>1.888867863113348</v>
+        <v>2.093424307893051</v>
       </c>
       <c r="AD88">
-        <v>1.896402610103816</v>
+        <v>2.091684736238503</v>
       </c>
       <c r="AE88">
-        <v>1.900325188154983</v>
+        <v>2.087548237614417</v>
       </c>
       <c r="AF88">
-        <v>1.911727607681627</v>
+        <v>2.109148841187441</v>
       </c>
       <c r="AG88">
-        <v>1.921303043383531</v>
+        <v>2.146108845332875</v>
       </c>
       <c r="AH88">
-        <v>1.938810911302829</v>
+        <v>2.186041722732814</v>
       </c>
       <c r="AI88">
-        <v>1.951664872629184</v>
+        <v>2.230755262544718</v>
       </c>
       <c r="AJ88">
-        <v>1.959798683641549</v>
+        <v>2.261716103666999</v>
       </c>
       <c r="AK88">
-        <v>1.973789034768921</v>
+        <v>2.305489309389761</v>
       </c>
       <c r="AL88">
-        <v>1.988057385531173</v>
+        <v>2.371950764673626</v>
       </c>
       <c r="AM88">
-        <v>1.996212609816282</v>
+        <v>2.411405224807131</v>
       </c>
       <c r="AN88">
-        <v>2.005068733816634</v>
+        <v>2.452726543096713</v>
       </c>
     </row>
     <row r="89" spans="1:40">
@@ -8260,112 +8260,112 @@
         <v>37</v>
       </c>
       <c r="E89">
-        <v>3.616702643573265</v>
+        <v>1.645457287769349</v>
       </c>
       <c r="F89">
-        <v>3.471053688732874</v>
+        <v>1.336503602187224</v>
       </c>
       <c r="G89">
-        <v>3.949586487968684</v>
+        <v>1.293578535312934</v>
       </c>
       <c r="H89">
-        <v>4.308601864992218</v>
+        <v>1.379411443914294</v>
       </c>
       <c r="I89">
-        <v>4.626462428128699</v>
+        <v>1.531616781933994</v>
       </c>
       <c r="J89">
-        <v>4.859980796119014</v>
+        <v>1.744569308436774</v>
       </c>
       <c r="K89">
-        <v>4.996430045902295</v>
+        <v>1.8506471786403</v>
       </c>
       <c r="L89">
-        <v>5.048220649977612</v>
+        <v>1.941733757144012</v>
       </c>
       <c r="M89">
-        <v>5.137484807905361</v>
+        <v>1.984123368013267</v>
       </c>
       <c r="N89">
-        <v>5.277290992808449</v>
+        <v>2.02534659034214</v>
       </c>
       <c r="O89">
-        <v>5.434211591843082</v>
+        <v>2.033865656010496</v>
       </c>
       <c r="P89">
-        <v>5.596375525691734</v>
+        <v>2.022452273461978</v>
       </c>
       <c r="Q89">
-        <v>5.731261716401492</v>
+        <v>2.076569256706233</v>
       </c>
       <c r="R89">
-        <v>5.841837810764969</v>
+        <v>2.111607666888704</v>
       </c>
       <c r="S89">
-        <v>5.961309955447406</v>
+        <v>2.142873769829815</v>
       </c>
       <c r="T89">
-        <v>6.065381342073239</v>
+        <v>2.157684443557342</v>
       </c>
       <c r="U89">
-        <v>6.143354662071269</v>
+        <v>2.143103110361384</v>
       </c>
       <c r="V89">
-        <v>6.255792548775786</v>
+        <v>2.140526720484212</v>
       </c>
       <c r="W89">
-        <v>6.348691212767128</v>
+        <v>2.120854618063905</v>
       </c>
       <c r="X89">
-        <v>6.494006491898499</v>
+        <v>2.156768065725194</v>
       </c>
       <c r="Y89">
-        <v>6.633410100503682</v>
+        <v>2.225082015308852</v>
       </c>
       <c r="Z89">
-        <v>6.684827657104902</v>
+        <v>2.239835599977018</v>
       </c>
       <c r="AA89">
-        <v>6.746042877445327</v>
+        <v>2.272326164811997</v>
       </c>
       <c r="AB89">
-        <v>6.811543222267228</v>
+        <v>2.28899666229231</v>
       </c>
       <c r="AC89">
-        <v>6.855855159566326</v>
+        <v>2.305713421596587</v>
       </c>
       <c r="AD89">
-        <v>6.870837100471936</v>
+        <v>2.281250759660638</v>
       </c>
       <c r="AE89">
-        <v>6.942412016498026</v>
+        <v>2.29579272109152</v>
       </c>
       <c r="AF89">
-        <v>7.020611724145244</v>
+        <v>2.311493688856832</v>
       </c>
       <c r="AG89">
-        <v>7.104220128019803</v>
+        <v>2.338428405492501</v>
       </c>
       <c r="AH89">
-        <v>7.196448487710723</v>
+        <v>2.379998099354045</v>
       </c>
       <c r="AI89">
-        <v>7.300298900305064</v>
+        <v>2.418699067982726</v>
       </c>
       <c r="AJ89">
-        <v>7.38847344463433</v>
+        <v>2.457966005734378</v>
       </c>
       <c r="AK89">
-        <v>7.500637697571568</v>
+        <v>2.477945700069342</v>
       </c>
       <c r="AL89">
-        <v>7.602491469529484</v>
+        <v>2.502268100092207</v>
       </c>
       <c r="AM89">
-        <v>7.685698281400264</v>
+        <v>2.517354868322331</v>
       </c>
       <c r="AN89">
-        <v>7.848164393545876</v>
+        <v>2.577074945883988</v>
       </c>
     </row>
     <row r="90" spans="1:40">
@@ -8382,112 +8382,112 @@
         <v>38</v>
       </c>
       <c r="E90">
-        <v>32.46907545494931</v>
+        <v>17.50287932704484</v>
       </c>
       <c r="F90">
-        <v>32.7643905154163</v>
+        <v>18.91977510623768</v>
       </c>
       <c r="G90">
-        <v>33.7169440405882</v>
+        <v>22.68810251795394</v>
       </c>
       <c r="H90">
-        <v>34.46546584948177</v>
+        <v>24.53409923594358</v>
       </c>
       <c r="I90">
-        <v>35.2006172574776</v>
+        <v>27.50399470220792</v>
       </c>
       <c r="J90">
-        <v>35.85072010035768</v>
+        <v>31.21163982214562</v>
       </c>
       <c r="K90">
-        <v>35.82131973510204</v>
+        <v>30.88410003595421</v>
       </c>
       <c r="L90">
-        <v>36.47160749546785</v>
+        <v>30.06256348867879</v>
       </c>
       <c r="M90">
-        <v>37.32477905836146</v>
+        <v>30.06460159124263</v>
       </c>
       <c r="N90">
-        <v>38.11464441016181</v>
+        <v>30.72708878709493</v>
       </c>
       <c r="O90">
-        <v>38.59393526612831</v>
+        <v>31.69684006707822</v>
       </c>
       <c r="P90">
-        <v>39.06387745966242</v>
+        <v>32.82954626177549</v>
       </c>
       <c r="Q90">
-        <v>39.35639795292023</v>
+        <v>33.65772519875203</v>
       </c>
       <c r="R90">
-        <v>39.55072546601505</v>
+        <v>34.41565299917595</v>
       </c>
       <c r="S90">
-        <v>39.62069122999079</v>
+        <v>35.02686375282301</v>
       </c>
       <c r="T90">
-        <v>39.72600335931929</v>
+        <v>35.22658933718455</v>
       </c>
       <c r="U90">
-        <v>39.34684015898184</v>
+        <v>35.63771930807241</v>
       </c>
       <c r="V90">
-        <v>39.38773200012712</v>
+        <v>35.58585097542523</v>
       </c>
       <c r="W90">
-        <v>39.40638432329898</v>
+        <v>35.21286157086004</v>
       </c>
       <c r="X90">
-        <v>39.75685254189468</v>
+        <v>35.12912185926796</v>
       </c>
       <c r="Y90">
-        <v>40.09558961500011</v>
+        <v>35.64257009527478</v>
       </c>
       <c r="Z90">
-        <v>40.2372545791071</v>
+        <v>35.52757013629304</v>
       </c>
       <c r="AA90">
-        <v>40.50913478210167</v>
+        <v>35.50276281567812</v>
       </c>
       <c r="AB90">
-        <v>40.84150279079082</v>
+        <v>35.43180348384957</v>
       </c>
       <c r="AC90">
-        <v>41.2770518160113</v>
+        <v>35.61167146715043</v>
       </c>
       <c r="AD90">
-        <v>41.49378165567209</v>
+        <v>35.45948677723199</v>
       </c>
       <c r="AE90">
-        <v>41.65237929385211</v>
+        <v>35.68879946204997</v>
       </c>
       <c r="AF90">
-        <v>41.72489114947692</v>
+        <v>36.15621149565606</v>
       </c>
       <c r="AG90">
-        <v>41.65108735081559</v>
+        <v>36.88075391338178</v>
       </c>
       <c r="AH90">
-        <v>41.76952692659231</v>
+        <v>37.36458791107986</v>
       </c>
       <c r="AI90">
-        <v>41.9626981971584</v>
+        <v>38.01588782459359</v>
       </c>
       <c r="AJ90">
-        <v>42.17513148937704</v>
+        <v>38.45692304655682</v>
       </c>
       <c r="AK90">
-        <v>42.40966400858335</v>
+        <v>39.10320474202511</v>
       </c>
       <c r="AL90">
-        <v>42.44528191768498</v>
+        <v>40.35190070821968</v>
       </c>
       <c r="AM90">
-        <v>42.38683800326724</v>
+        <v>40.79327734717812</v>
       </c>
       <c r="AN90">
-        <v>42.54143506844009</v>
+        <v>41.3490538990611</v>
       </c>
     </row>
     <row r="91" spans="1:40">
@@ -8504,112 +8504,112 @@
         <v>39</v>
       </c>
       <c r="E91">
-        <v>1.640935872507797</v>
+        <v>0.6418197526518424</v>
       </c>
       <c r="F91">
-        <v>1.860889360935191</v>
+        <v>0.5702451084614404</v>
       </c>
       <c r="G91">
-        <v>2.008610732495076</v>
+        <v>0.6780194313806989</v>
       </c>
       <c r="H91">
-        <v>2.092353621337726</v>
+        <v>0.7749572521311816</v>
       </c>
       <c r="I91">
-        <v>2.1510570179399</v>
+        <v>0.9068065524439465</v>
       </c>
       <c r="J91">
-        <v>2.205953492186905</v>
+        <v>1.036725725663348</v>
       </c>
       <c r="K91">
-        <v>2.220598503756703</v>
+        <v>1.021505455282401</v>
       </c>
       <c r="L91">
-        <v>2.276089172438045</v>
+        <v>0.9987693942764653</v>
       </c>
       <c r="M91">
-        <v>2.343918536117869</v>
+        <v>1.006790492132053</v>
       </c>
       <c r="N91">
-        <v>2.402928173362989</v>
+        <v>1.038039444821369</v>
       </c>
       <c r="O91">
-        <v>2.440518034361942</v>
+        <v>1.059163726262898</v>
       </c>
       <c r="P91">
-        <v>2.475534132445155</v>
+        <v>1.087917984471465</v>
       </c>
       <c r="Q91">
-        <v>2.510488415573306</v>
+        <v>1.115727155780817</v>
       </c>
       <c r="R91">
-        <v>2.532237442557478</v>
+        <v>1.141776546086029</v>
       </c>
       <c r="S91">
-        <v>2.541984475007595</v>
+        <v>1.165391916775749</v>
       </c>
       <c r="T91">
-        <v>2.545375261447057</v>
+        <v>1.175571264654118</v>
       </c>
       <c r="U91">
-        <v>2.510205810066751</v>
+        <v>1.196369338852686</v>
       </c>
       <c r="V91">
-        <v>2.50139757542388</v>
+        <v>1.19620511560886</v>
       </c>
       <c r="W91">
-        <v>2.504138959517625</v>
+        <v>1.177824332028658</v>
       </c>
       <c r="X91">
-        <v>2.52645089194662</v>
+        <v>1.174318395201273</v>
       </c>
       <c r="Y91">
-        <v>2.550312351415561</v>
+        <v>1.197328634495101</v>
       </c>
       <c r="Z91">
-        <v>2.551013226378857</v>
+        <v>1.19455789688442</v>
       </c>
       <c r="AA91">
-        <v>2.564588978406578</v>
+        <v>1.196526990008025</v>
       </c>
       <c r="AB91">
-        <v>2.579376719579889</v>
+        <v>1.193319942005945</v>
       </c>
       <c r="AC91">
-        <v>2.596312880918534</v>
+        <v>1.199651663201486</v>
       </c>
       <c r="AD91">
-        <v>2.598368184630465</v>
+        <v>1.194145778423921</v>
       </c>
       <c r="AE91">
-        <v>2.604623948626338</v>
+        <v>1.198728105732451</v>
       </c>
       <c r="AF91">
-        <v>2.598953089971518</v>
+        <v>1.219890851635876</v>
       </c>
       <c r="AG91">
-        <v>2.58484843420302</v>
+        <v>1.249720156817263</v>
       </c>
       <c r="AH91">
-        <v>2.589399119516031</v>
+        <v>1.264131034587606</v>
       </c>
       <c r="AI91">
-        <v>2.601939968668748</v>
+        <v>1.284262408460384</v>
       </c>
       <c r="AJ91">
-        <v>2.619598087239378</v>
+        <v>1.299913311171834</v>
       </c>
       <c r="AK91">
-        <v>2.640395378191663</v>
+        <v>1.316684700406492</v>
       </c>
       <c r="AL91">
-        <v>2.659698185318869</v>
+        <v>1.343006587078112</v>
       </c>
       <c r="AM91">
-        <v>2.67414439164832</v>
+        <v>1.355488233948962</v>
       </c>
       <c r="AN91">
-        <v>2.695973261233021</v>
+        <v>1.379159953856996</v>
       </c>
     </row>
     <row r="92" spans="1:40">
@@ -8626,112 +8626,112 @@
         <v>40</v>
       </c>
       <c r="E92">
-        <v>12.87812703994734</v>
+        <v>5.859040700610365</v>
       </c>
       <c r="F92">
-        <v>12.35950941264443</v>
+        <v>4.758937870908118</v>
       </c>
       <c r="G92">
-        <v>14.06343887233918</v>
+        <v>4.606092995649255</v>
       </c>
       <c r="H92">
-        <v>15.34179822068631</v>
+        <v>4.911721411947372</v>
       </c>
       <c r="I92">
-        <v>16.47361609914384</v>
+        <v>5.453684595638703</v>
       </c>
       <c r="J92">
-        <v>17.30511359990859</v>
+        <v>6.211952543006105</v>
       </c>
       <c r="K92">
-        <v>17.79097349672292</v>
+        <v>6.589667943810626</v>
       </c>
       <c r="L92">
-        <v>17.97538621861</v>
+        <v>6.914003297088661</v>
       </c>
       <c r="M92">
-        <v>18.29323241145369</v>
+        <v>7.064941554320905</v>
       </c>
       <c r="N92">
-        <v>18.79104547146614</v>
+        <v>7.211726608682666</v>
       </c>
       <c r="O92">
-        <v>19.34979845967312</v>
+        <v>7.24206076129366</v>
       </c>
       <c r="P92">
-        <v>19.92722158432825</v>
+        <v>7.201420707382536</v>
       </c>
       <c r="Q92">
-        <v>20.40751583881487</v>
+        <v>7.394117053729012</v>
       </c>
       <c r="R92">
-        <v>20.80124823296801</v>
+        <v>7.518879618439569</v>
       </c>
       <c r="S92">
-        <v>21.22665712293838</v>
+        <v>7.630209989056348</v>
       </c>
       <c r="T92">
-        <v>21.5972279633619</v>
+        <v>7.682946903480106</v>
       </c>
       <c r="U92">
-        <v>21.87487045145681</v>
+        <v>7.63102661038025</v>
       </c>
       <c r="V92">
-        <v>22.27523219854625</v>
+        <v>7.621852763533422</v>
       </c>
       <c r="W92">
-        <v>22.60601991172686</v>
+        <v>7.551805579930496</v>
       </c>
       <c r="X92">
-        <v>23.12344940757568</v>
+        <v>7.679683922997052</v>
       </c>
       <c r="Y92">
-        <v>23.61982899925562</v>
+        <v>7.922931933143029</v>
       </c>
       <c r="Z92">
-        <v>23.80291339718665</v>
+        <v>7.975465568438949</v>
       </c>
       <c r="AA92">
-        <v>24.02088469922974</v>
+        <v>8.091155925866598</v>
       </c>
       <c r="AB92">
-        <v>24.2541142027046</v>
+        <v>8.150515183601561</v>
       </c>
       <c r="AC92">
-        <v>24.4118973588449</v>
+        <v>8.210039167526324</v>
       </c>
       <c r="AD92">
-        <v>24.46524411065218</v>
+        <v>8.122934061247753</v>
       </c>
       <c r="AE92">
-        <v>24.72010356477276</v>
+        <v>8.174714161845651</v>
       </c>
       <c r="AF92">
-        <v>24.99855215975392</v>
+        <v>8.230621179219918</v>
       </c>
       <c r="AG92">
-        <v>25.29625969969146</v>
+        <v>8.326528622215129</v>
       </c>
       <c r="AH92">
-        <v>25.62466063552625</v>
+        <v>8.474547370594113</v>
       </c>
       <c r="AI92">
-        <v>25.99444464553254</v>
+        <v>8.612351342799238</v>
       </c>
       <c r="AJ92">
-        <v>26.30841101088456</v>
+        <v>8.752170582220002</v>
       </c>
       <c r="AK92">
-        <v>26.7077984200854</v>
+        <v>8.82331301974447</v>
       </c>
       <c r="AL92">
-        <v>27.07047291783619</v>
+        <v>8.909918690234818</v>
       </c>
       <c r="AM92">
-        <v>27.36675049425375</v>
+        <v>8.963638704578551</v>
       </c>
       <c r="AN92">
-        <v>27.94524959636141</v>
+        <v>9.176286196359815</v>
       </c>
     </row>
     <row r="93" spans="1:40">
@@ -8748,112 +8748,112 @@
         <v>41</v>
       </c>
       <c r="E93">
-        <v>3.424088226162588</v>
+        <v>1.557467397150679</v>
       </c>
       <c r="F93">
-        <v>3.287173507343625</v>
+        <v>1.265202049268422</v>
       </c>
       <c r="G93">
-        <v>3.739983998704478</v>
+        <v>1.22499786844863</v>
       </c>
       <c r="H93">
-        <v>4.079608872323712</v>
+        <v>1.306457756236105</v>
       </c>
       <c r="I93">
-        <v>4.380248953100373</v>
+        <v>1.45077167682737</v>
       </c>
       <c r="J93">
-        <v>4.601156398055346</v>
+        <v>1.652496800959551</v>
       </c>
       <c r="K93">
-        <v>4.730177276657823</v>
+        <v>1.752708819740511</v>
       </c>
       <c r="L93">
-        <v>4.779318996397142</v>
+        <v>1.838725496616322</v>
       </c>
       <c r="M93">
-        <v>4.863922608581655</v>
+        <v>1.878819256466046</v>
       </c>
       <c r="N93">
-        <v>4.996268037493618</v>
+        <v>1.917889927008949</v>
       </c>
       <c r="O93">
-        <v>5.144716691506071</v>
+        <v>1.9260142701205</v>
       </c>
       <c r="P93">
-        <v>5.298112512417717</v>
+        <v>1.915324681335595</v>
       </c>
       <c r="Q93">
-        <v>5.425725398439789</v>
+        <v>1.966570686374201</v>
       </c>
       <c r="R93">
-        <v>5.530315434791864</v>
+        <v>1.999777750045248</v>
       </c>
       <c r="S93">
-        <v>5.643272940566162</v>
+        <v>2.029410939089231</v>
       </c>
       <c r="T93">
-        <v>5.741652042140386</v>
+        <v>2.043444663930063</v>
       </c>
       <c r="U93">
-        <v>5.815231676291433</v>
+        <v>2.02973356399842</v>
       </c>
       <c r="V93">
-        <v>5.921477047001474</v>
+        <v>2.027297817924411</v>
       </c>
       <c r="W93">
-        <v>6.009293553620785</v>
+        <v>2.008641080795301</v>
       </c>
       <c r="X93">
-        <v>6.146720737305999</v>
+        <v>2.042574229074398</v>
       </c>
       <c r="Y93">
-        <v>6.278565548108112</v>
+        <v>2.107222704464832</v>
       </c>
       <c r="Z93">
-        <v>6.327167442189063</v>
+        <v>2.12115821700336</v>
       </c>
       <c r="AA93">
-        <v>6.385074011646607</v>
+        <v>2.151874790320796</v>
       </c>
       <c r="AB93">
-        <v>6.447034991004133</v>
+        <v>2.167620663924144</v>
       </c>
       <c r="AC93">
-        <v>6.488976183701332</v>
+        <v>2.183442859090869</v>
       </c>
       <c r="AD93">
-        <v>6.503144028104277</v>
+        <v>2.160302115300941</v>
       </c>
       <c r="AE93">
-        <v>6.570817492928713</v>
+        <v>2.174062729487654</v>
       </c>
       <c r="AF93">
-        <v>6.644711907592277</v>
+        <v>2.188975485464209</v>
       </c>
       <c r="AG93">
-        <v>6.723689763050346</v>
+        <v>2.214535913624754</v>
       </c>
       <c r="AH93">
-        <v>6.810878885558309</v>
+        <v>2.253876528620845</v>
       </c>
       <c r="AI93">
-        <v>6.909080391055399</v>
+        <v>2.290525193156715</v>
       </c>
       <c r="AJ93">
-        <v>6.992482666698639</v>
+        <v>2.327693497218008</v>
       </c>
       <c r="AK93">
-        <v>7.09857056673265</v>
+        <v>2.346635468467609</v>
       </c>
       <c r="AL93">
-        <v>7.194907968574751</v>
+        <v>2.369714768729326</v>
       </c>
       <c r="AM93">
-        <v>7.273603804242411</v>
+        <v>2.38401732333579</v>
       </c>
       <c r="AN93">
-        <v>7.427240179385174</v>
+        <v>2.440545194000984</v>
       </c>
     </row>
     <row r="94" spans="1:40">
@@ -9345,112 +9345,112 @@
         <v>48</v>
       </c>
       <c r="E100">
-        <v>74.07485017964243</v>
+        <v>59.86605565909448</v>
       </c>
       <c r="F100">
-        <v>72.68832003222725</v>
+        <v>59.6147035938711</v>
       </c>
       <c r="G100">
-        <v>76.32300708795219</v>
+        <v>67.59250023863711</v>
       </c>
       <c r="H100">
-        <v>79.76832995519675</v>
+        <v>75.8436368045118</v>
       </c>
       <c r="I100">
-        <v>82.4060204418161</v>
+        <v>90.4231711267476</v>
       </c>
       <c r="J100">
-        <v>84.36727298410926</v>
+        <v>95.04275517589009</v>
       </c>
       <c r="K100">
-        <v>84.85865627869218</v>
+        <v>93.07874668965107</v>
       </c>
       <c r="L100">
-        <v>85.63638747349329</v>
+        <v>90.77541487075356</v>
       </c>
       <c r="M100">
-        <v>87.01294707654178</v>
+        <v>90.34658543270618</v>
       </c>
       <c r="N100">
-        <v>88.81414847360166</v>
+        <v>91.90387450099891</v>
       </c>
       <c r="O100">
-        <v>90.57914332705558</v>
+        <v>95.5864775736309</v>
       </c>
       <c r="P100">
-        <v>92.17851649949799</v>
+        <v>99.61493019812812</v>
       </c>
       <c r="Q100">
-        <v>93.1424727244099</v>
+        <v>100.9316699846839</v>
       </c>
       <c r="R100">
-        <v>94.03855732791848</v>
+        <v>102.4987271909322</v>
       </c>
       <c r="S100">
-        <v>94.93608800413882</v>
+        <v>104.0637236205772</v>
       </c>
       <c r="T100">
-        <v>95.65765852314904</v>
+        <v>104.5700311258887</v>
       </c>
       <c r="U100">
-        <v>95.79692153234893</v>
+        <v>104.5540859159106</v>
       </c>
       <c r="V100">
-        <v>96.57955567320414</v>
+        <v>104.3551063581356</v>
       </c>
       <c r="W100">
-        <v>97.23155373752368</v>
+        <v>103.5016934635511</v>
       </c>
       <c r="X100">
-        <v>98.57802013794739</v>
+        <v>103.8879078091803</v>
       </c>
       <c r="Y100">
-        <v>100.0808692767475</v>
+        <v>105.3218528383914</v>
       </c>
       <c r="Z100">
-        <v>100.6292103847027</v>
+        <v>105.6990240833328</v>
       </c>
       <c r="AA100">
-        <v>101.5624699957262</v>
+        <v>105.8129741053152</v>
       </c>
       <c r="AB100">
-        <v>102.3442993896042</v>
+        <v>106.1746089786453</v>
       </c>
       <c r="AC100">
-        <v>103.0059466127637</v>
+        <v>107.2442644209829</v>
       </c>
       <c r="AD100">
-        <v>103.4053505970018</v>
+        <v>106.6954300490566</v>
       </c>
       <c r="AE100">
-        <v>104.0355559627587</v>
+        <v>106.8342052778272</v>
       </c>
       <c r="AF100">
-        <v>104.5883639672247</v>
+        <v>107.945489994622</v>
       </c>
       <c r="AG100">
-        <v>105.0071366366274</v>
+        <v>109.7751311571754</v>
       </c>
       <c r="AH100">
-        <v>105.7389122077104</v>
+        <v>111.6430628926419</v>
       </c>
       <c r="AI100">
-        <v>106.5189065070027</v>
+        <v>113.997533904263</v>
       </c>
       <c r="AJ100">
-        <v>107.2057196612866</v>
+        <v>115.7567388393688</v>
       </c>
       <c r="AK100">
-        <v>108.0004616665338</v>
+        <v>117.6528205706434</v>
       </c>
       <c r="AL100">
-        <v>108.5762799771792</v>
+        <v>120.5201375114257</v>
       </c>
       <c r="AM100">
-        <v>109.1453443294542</v>
+        <v>121.5564621376734</v>
       </c>
       <c r="AN100">
-        <v>110.3590610183078</v>
+        <v>123.5440445799516</v>
       </c>
     </row>
     <row r="101" spans="1:40">
@@ -9582,112 +9582,112 @@
         <v>45</v>
       </c>
       <c r="E103">
-        <v>340.708910453615</v>
+        <v>326.500115933067</v>
       </c>
       <c r="F103">
-        <v>339.999598114419</v>
+        <v>326.9259816760629</v>
       </c>
       <c r="G103">
-        <v>341.3768317454865</v>
+        <v>332.6463248961713</v>
       </c>
       <c r="H103">
-        <v>345.3989272154707</v>
+        <v>341.4742340647858</v>
       </c>
       <c r="I103">
-        <v>348.0610177020901</v>
+        <v>356.0781683870216</v>
       </c>
       <c r="J103">
-        <v>349.3078250389037</v>
+        <v>359.9833072306845</v>
       </c>
       <c r="K103">
-        <v>353.2592521691031</v>
+        <v>361.479342580062</v>
       </c>
       <c r="L103">
-        <v>359.3168628159591</v>
+        <v>364.4558902132193</v>
       </c>
       <c r="M103">
-        <v>366.2151018710624</v>
+        <v>369.5487402272267</v>
       </c>
       <c r="N103">
-        <v>373.572482720177</v>
+        <v>376.6622087475743</v>
       </c>
       <c r="O103">
-        <v>379.501894011987</v>
+        <v>384.5092282585624</v>
       </c>
       <c r="P103">
-        <v>385.6065836227856</v>
+        <v>393.0429973214158</v>
       </c>
       <c r="Q103">
-        <v>390.6607562860537</v>
+        <v>398.4499535463276</v>
       </c>
       <c r="R103">
-        <v>396.0614751361376</v>
+        <v>404.5216449991514</v>
       </c>
       <c r="S103">
-        <v>401.6897126616731</v>
+        <v>410.8173482781115</v>
       </c>
       <c r="T103">
-        <v>408.3319078382175</v>
+        <v>417.2442804409572</v>
       </c>
       <c r="U103">
-        <v>410.5492502994722</v>
+        <v>419.3064146830339</v>
       </c>
       <c r="V103">
-        <v>417.7592817006014</v>
+        <v>425.5348323855329</v>
       </c>
       <c r="W103">
-        <v>424.4147044224552</v>
+        <v>430.6848441484826</v>
       </c>
       <c r="X103">
-        <v>432.880485891372</v>
+        <v>438.1903735626049</v>
       </c>
       <c r="Y103">
-        <v>441.806622701405</v>
+        <v>447.0476062630489</v>
       </c>
       <c r="Z103">
-        <v>450.0622240833328</v>
+        <v>455.1320377819629</v>
       </c>
       <c r="AA103">
-        <v>456.490963146411</v>
+        <v>460.7414672560001</v>
       </c>
       <c r="AB103">
-        <v>464.7160802115221</v>
+        <v>468.5463898005631</v>
       </c>
       <c r="AC103">
-        <v>473.4089603113939</v>
+        <v>477.647278119613</v>
       </c>
       <c r="AD103">
-        <v>480.7737067613854</v>
+        <v>484.0637862134402</v>
       </c>
       <c r="AE103">
-        <v>466.5013093874162</v>
+        <v>469.2999587024847</v>
       </c>
       <c r="AF103">
-        <v>473.9034324603753</v>
+        <v>477.2605584877726</v>
       </c>
       <c r="AG103">
-        <v>482.2674106092302</v>
+        <v>487.0354051297782</v>
       </c>
       <c r="AH103">
-        <v>491.4923368652447</v>
+        <v>497.3964875501762</v>
       </c>
       <c r="AI103">
-        <v>500.217536643989</v>
+        <v>507.6961640412493</v>
       </c>
       <c r="AJ103">
-        <v>509.6714730859441</v>
+        <v>518.2224922640263</v>
       </c>
       <c r="AK103">
-        <v>518.6853931733831</v>
+        <v>528.3377520774926</v>
       </c>
       <c r="AL103">
-        <v>526.9324443607408</v>
+        <v>538.8763018949874</v>
       </c>
       <c r="AM103">
-        <v>534.6247963842487</v>
+        <v>547.0359141924679</v>
       </c>
       <c r="AN103">
-        <v>544.0576911552942</v>
+        <v>557.2426747169379</v>
       </c>
     </row>
   </sheetData>
@@ -10973,7 +10973,7 @@
         <v>3.887491</v>
       </c>
       <c r="M18">
-        <v>3.799037999999999</v>
+        <v>3.799038</v>
       </c>
       <c r="N18">
         <v>3.880111</v>
@@ -11071,112 +11071,112 @@
         <v>35</v>
       </c>
       <c r="E19">
-        <v>2.338180514084465</v>
+        <v>2.337720744247768</v>
       </c>
       <c r="F19">
-        <v>2.30896634934203</v>
+        <v>2.377194623171236</v>
       </c>
       <c r="G19">
-        <v>2.76527563994046</v>
+        <v>2.826613058523213</v>
       </c>
       <c r="H19">
-        <v>3.112458536645809</v>
+        <v>3.14354835990108</v>
       </c>
       <c r="I19">
-        <v>3.434383283738724</v>
+        <v>3.455638850416743</v>
       </c>
       <c r="J19">
-        <v>3.637021170465523</v>
+        <v>3.673332379984537</v>
       </c>
       <c r="K19">
-        <v>3.702071021185183</v>
+        <v>3.729933218658346</v>
       </c>
       <c r="L19">
-        <v>3.655294211284734</v>
+        <v>3.681217035333017</v>
       </c>
       <c r="M19">
-        <v>3.646444130134786</v>
+        <v>3.672600397236866</v>
       </c>
       <c r="N19">
-        <v>3.726746831742358</v>
+        <v>3.751754823131238</v>
       </c>
       <c r="O19">
-        <v>3.967782140213587</v>
+        <v>3.991380444610056</v>
       </c>
       <c r="P19">
-        <v>4.150573224659054</v>
+        <v>4.175637965928243</v>
       </c>
       <c r="Q19">
-        <v>4.165901815431671</v>
+        <v>4.197226469495279</v>
       </c>
       <c r="R19">
-        <v>4.224193612490468</v>
+        <v>4.257945460870689</v>
       </c>
       <c r="S19">
-        <v>4.264235331438047</v>
+        <v>4.299196552361306</v>
       </c>
       <c r="T19">
-        <v>4.247443825422346</v>
+        <v>4.282945308911295</v>
       </c>
       <c r="U19">
-        <v>4.229917336173097</v>
+        <v>4.26610291278934</v>
       </c>
       <c r="V19">
-        <v>4.228345195311128</v>
+        <v>4.262548935890853</v>
       </c>
       <c r="W19">
-        <v>4.210459909542969</v>
+        <v>4.242653186488678</v>
       </c>
       <c r="X19">
-        <v>4.210003931281065</v>
+        <v>4.241626411050348</v>
       </c>
       <c r="Y19">
-        <v>4.249644864866467</v>
+        <v>4.28173466828217</v>
       </c>
       <c r="Z19">
-        <v>4.297224881279358</v>
+        <v>4.323059991339355</v>
       </c>
       <c r="AA19">
-        <v>4.32692715568604</v>
+        <v>4.349686502922061</v>
       </c>
       <c r="AB19">
-        <v>4.328761960572002</v>
+        <v>4.351042132927717</v>
       </c>
       <c r="AC19">
-        <v>4.35933710709143</v>
+        <v>4.381190962521819</v>
       </c>
       <c r="AD19">
-        <v>4.373308926080246</v>
+        <v>4.393062381488343</v>
       </c>
       <c r="AE19">
-        <v>4.372519449340315</v>
+        <v>4.397027341000129</v>
       </c>
       <c r="AF19">
-        <v>4.417877524181641</v>
+        <v>4.441955645620981</v>
       </c>
       <c r="AG19">
-        <v>4.489680435486226</v>
+        <v>4.513406460926077</v>
       </c>
       <c r="AH19">
-        <v>4.576543183729083</v>
+        <v>4.59878498291185</v>
       </c>
       <c r="AI19">
-        <v>4.668870336144081</v>
+        <v>4.690336676089836</v>
       </c>
       <c r="AJ19">
-        <v>4.736917373236853</v>
+        <v>4.75755776685487</v>
       </c>
       <c r="AK19">
-        <v>4.823858576899868</v>
+        <v>4.844652615768216</v>
       </c>
       <c r="AL19">
-        <v>4.995492275850195</v>
+        <v>5.024625158103968</v>
       </c>
       <c r="AM19">
-        <v>5.08552895103402</v>
+        <v>5.114120526235055</v>
       </c>
       <c r="AN19">
-        <v>5.169610279380362</v>
+        <v>5.195921910531478</v>
       </c>
     </row>
     <row r="20" spans="1:40">
@@ -11193,112 +11193,112 @@
         <v>36</v>
       </c>
       <c r="E20">
-        <v>2.32888436947067</v>
+        <v>2.328212678484897</v>
       </c>
       <c r="F20">
-        <v>2.365738088688126</v>
+        <v>2.386373114048713</v>
       </c>
       <c r="G20">
-        <v>2.858293122417309</v>
+        <v>2.89590023115816</v>
       </c>
       <c r="H20">
-        <v>3.166585458051684</v>
+        <v>3.190196046979321</v>
       </c>
       <c r="I20">
-        <v>3.516847847007364</v>
+        <v>3.549104484018847</v>
       </c>
       <c r="J20">
-        <v>3.82432035473587</v>
+        <v>3.912819664511228</v>
       </c>
       <c r="K20">
-        <v>3.857895804070842</v>
+        <v>3.938728765848869</v>
       </c>
       <c r="L20">
-        <v>3.779135834050612</v>
+        <v>3.848065257275774</v>
       </c>
       <c r="M20">
-        <v>3.765317823290052</v>
+        <v>3.833786295161679</v>
       </c>
       <c r="N20">
-        <v>3.841081188388718</v>
+        <v>3.908675111763849</v>
       </c>
       <c r="O20">
-        <v>4.032850926226782</v>
+        <v>4.078319303957683</v>
       </c>
       <c r="P20">
-        <v>4.194084853015838</v>
+        <v>4.231791272488936</v>
       </c>
       <c r="Q20">
-        <v>4.235808192531576</v>
+        <v>4.291394840310681</v>
       </c>
       <c r="R20">
-        <v>4.304415796425079</v>
+        <v>4.369191626026984</v>
       </c>
       <c r="S20">
-        <v>4.355085932655936</v>
+        <v>4.430984923802228</v>
       </c>
       <c r="T20">
-        <v>4.347828282169154</v>
+        <v>4.435305576333513</v>
       </c>
       <c r="U20">
-        <v>4.345260079368868</v>
+        <v>4.451179829443584</v>
       </c>
       <c r="V20">
-        <v>4.336842488908205</v>
+        <v>4.44170811238692</v>
       </c>
       <c r="W20">
-        <v>4.313464442229276</v>
+        <v>4.415031880619265</v>
       </c>
       <c r="X20">
-        <v>4.306315199272739</v>
+        <v>4.406661786403771</v>
       </c>
       <c r="Y20">
-        <v>4.351804756551071</v>
+        <v>4.458637733638484</v>
       </c>
       <c r="Z20">
-        <v>4.387285013402293</v>
+        <v>4.481478490984284</v>
       </c>
       <c r="AA20">
-        <v>4.409865521663124</v>
+        <v>4.496829427435871</v>
       </c>
       <c r="AB20">
-        <v>4.404318016123132</v>
+        <v>4.48787931421418</v>
       </c>
       <c r="AC20">
-        <v>4.428146953745234</v>
+        <v>4.507723558799264</v>
       </c>
       <c r="AD20">
-        <v>4.431511543368171</v>
+        <v>4.501389661719257</v>
       </c>
       <c r="AE20">
-        <v>4.422211916447159</v>
+        <v>4.493096396739014</v>
       </c>
       <c r="AF20">
-        <v>4.468795022918541</v>
+        <v>4.53958524983036</v>
       </c>
       <c r="AG20">
-        <v>4.546640753832325</v>
+        <v>4.619733544277826</v>
       </c>
       <c r="AH20">
-        <v>4.633778423717172</v>
+        <v>4.704622953001319</v>
       </c>
       <c r="AI20">
-        <v>4.729029101176382</v>
+        <v>4.800663733530265</v>
       </c>
       <c r="AJ20">
-        <v>4.796217934256975</v>
+        <v>4.866577011559999</v>
       </c>
       <c r="AK20">
-        <v>4.888066929256677</v>
+        <v>4.961128049575667</v>
       </c>
       <c r="AL20">
-        <v>5.035687358354554</v>
+        <v>5.101747006996207</v>
       </c>
       <c r="AM20">
-        <v>5.123967437192957</v>
+        <v>5.185056823953005</v>
       </c>
       <c r="AN20">
-        <v>5.213253549790106</v>
+        <v>5.273488705744862</v>
       </c>
     </row>
     <row r="21" spans="1:40">
@@ -11339,7 +11339,7 @@
         <v>3.945434</v>
       </c>
       <c r="M21">
-        <v>4.031566</v>
+        <v>4.031565999999999</v>
       </c>
       <c r="N21">
         <v>4.115328</v>
@@ -11354,13 +11354,13 @@
         <v>4.219408</v>
       </c>
       <c r="R21">
-        <v>4.290603</v>
+        <v>4.290603000000001</v>
       </c>
       <c r="S21">
-        <v>4.354133000000001</v>
+        <v>4.354133</v>
       </c>
       <c r="T21">
-        <v>4.384227</v>
+        <v>4.384226999999999</v>
       </c>
       <c r="U21">
         <v>4.354599</v>
@@ -11381,7 +11381,7 @@
         <v>4.551151</v>
       </c>
       <c r="AA21">
-        <v>4.617168999999999</v>
+        <v>4.617169000000001</v>
       </c>
       <c r="AB21">
         <v>4.651042</v>
@@ -11396,16 +11396,16 @@
         <v>4.664851</v>
       </c>
       <c r="AF21">
-        <v>4.696754000000001</v>
+        <v>4.696753999999999</v>
       </c>
       <c r="AG21">
         <v>4.751483</v>
       </c>
       <c r="AH21">
-        <v>4.835949000000001</v>
+        <v>4.835949</v>
       </c>
       <c r="AI21">
-        <v>4.914586000000001</v>
+        <v>4.914586</v>
       </c>
       <c r="AJ21">
         <v>4.994373</v>
@@ -11414,13 +11414,13 @@
         <v>5.03497</v>
       </c>
       <c r="AL21">
-        <v>5.084391000000001</v>
+        <v>5.084391</v>
       </c>
       <c r="AM21">
         <v>5.115046</v>
       </c>
       <c r="AN21">
-        <v>5.236392</v>
+        <v>5.236391999999999</v>
       </c>
     </row>
     <row r="22" spans="1:40">
@@ -11437,112 +11437,112 @@
         <v>38</v>
       </c>
       <c r="E22">
-        <v>2.388656881336668</v>
+        <v>2.370185212335868</v>
       </c>
       <c r="F22">
-        <v>2.419488846495041</v>
+        <v>2.592205324929106</v>
       </c>
       <c r="G22">
-        <v>2.923287128130008</v>
+        <v>3.093615495837335</v>
       </c>
       <c r="H22">
-        <v>3.241583219878733</v>
+        <v>3.326031321644784</v>
       </c>
       <c r="I22">
-        <v>3.710263979317626</v>
+        <v>3.721813463237</v>
       </c>
       <c r="J22">
-        <v>4.226429409797435</v>
+        <v>4.225062793630887</v>
       </c>
       <c r="K22">
-        <v>4.157986061007843</v>
+        <v>4.18092883831807</v>
       </c>
       <c r="L22">
-        <v>4.038127070554061</v>
+        <v>4.069061117173979</v>
       </c>
       <c r="M22">
-        <v>4.04812697538784</v>
+        <v>4.068834080114953</v>
       </c>
       <c r="N22">
-        <v>4.154990758580036</v>
+        <v>4.158185041228432</v>
       </c>
       <c r="O22">
-        <v>4.27029881191342</v>
+        <v>4.289337880770867</v>
       </c>
       <c r="P22">
-        <v>4.415813535093046</v>
+        <v>4.443448959704439</v>
       </c>
       <c r="Q22">
-        <v>4.527025055067874</v>
+        <v>4.555208487226432</v>
       </c>
       <c r="R22">
-        <v>4.632084679049335</v>
+        <v>4.657557631346086</v>
       </c>
       <c r="S22">
-        <v>4.721579891076015</v>
+        <v>4.739911777372672</v>
       </c>
       <c r="T22">
-        <v>4.75505259390767</v>
+        <v>4.766743564330122</v>
       </c>
       <c r="U22">
-        <v>4.828114529428784</v>
+        <v>4.822338185854095</v>
       </c>
       <c r="V22">
-        <v>4.824037024885913</v>
+        <v>4.815325886849581</v>
       </c>
       <c r="W22">
-        <v>4.762182658821353</v>
+        <v>4.764800121517715</v>
       </c>
       <c r="X22">
-        <v>4.745488234522201</v>
+        <v>4.75350063950976</v>
       </c>
       <c r="Y22">
-        <v>4.821123020375986</v>
+        <v>4.822938639490955</v>
       </c>
       <c r="Z22">
-        <v>4.804988461377675</v>
+        <v>4.807381558346307</v>
       </c>
       <c r="AA22">
-        <v>4.803023752708611</v>
+        <v>4.804021170679002</v>
       </c>
       <c r="AB22">
-        <v>4.79065140527464</v>
+        <v>4.794437159215779</v>
       </c>
       <c r="AC22">
-        <v>4.816109123146181</v>
+        <v>4.818842887688788</v>
       </c>
       <c r="AD22">
-        <v>4.797525724158435</v>
+        <v>4.798351790012449</v>
       </c>
       <c r="AE22">
-        <v>4.826275904063359</v>
+        <v>4.830098950858171</v>
       </c>
       <c r="AF22">
-        <v>4.900604072599741</v>
+        <v>4.893265033425768</v>
       </c>
       <c r="AG22">
-        <v>5.009189786088527</v>
+        <v>4.991234941824593</v>
       </c>
       <c r="AH22">
-        <v>5.069627254586835</v>
+        <v>5.056497436574832</v>
       </c>
       <c r="AI22">
-        <v>5.154321424788351</v>
+        <v>5.144468999606922</v>
       </c>
       <c r="AJ22">
-        <v>5.214043520413044</v>
+        <v>5.204112825441701</v>
       </c>
       <c r="AK22">
-        <v>5.294471714466043</v>
+        <v>5.291432304338421</v>
       </c>
       <c r="AL22">
-        <v>5.447541952178693</v>
+        <v>5.46234683007983</v>
       </c>
       <c r="AM22">
-        <v>5.503244418585246</v>
+        <v>5.522020061788072</v>
       </c>
       <c r="AN22">
-        <v>5.582891685523908</v>
+        <v>5.596493321222176</v>
       </c>
     </row>
     <row r="23" spans="1:40">
@@ -11559,112 +11559,112 @@
         <v>39</v>
       </c>
       <c r="E23">
-        <v>2.577037759681038</v>
+        <v>2.596372188944355</v>
       </c>
       <c r="F23">
-        <v>2.27524731890595</v>
+        <v>2.289684082705791</v>
       </c>
       <c r="G23">
-        <v>2.708884329571768</v>
+        <v>2.709208709455644</v>
       </c>
       <c r="H23">
-        <v>3.094298568798774</v>
+        <v>3.099949211588966</v>
       </c>
       <c r="I23">
-        <v>3.616452993185748</v>
+        <v>3.632726448061768</v>
       </c>
       <c r="J23">
-        <v>4.132262299196727</v>
+        <v>4.153700829124277</v>
       </c>
       <c r="K23">
-        <v>4.074929867688717</v>
+        <v>4.084632885848783</v>
       </c>
       <c r="L23">
-        <v>3.98959370830605</v>
+        <v>3.990442604487964</v>
       </c>
       <c r="M23">
-        <v>4.022562881483993</v>
+        <v>4.022423387483087</v>
       </c>
       <c r="N23">
-        <v>4.146762568937773</v>
+        <v>4.147302583177132</v>
       </c>
       <c r="O23">
-        <v>4.229887908386199</v>
+        <v>4.23198121625672</v>
       </c>
       <c r="P23">
-        <v>4.341732879840762</v>
+        <v>4.348302918190742</v>
       </c>
       <c r="Q23">
-        <v>4.45244959762339</v>
+        <v>4.459381467727225</v>
       </c>
       <c r="R23">
-        <v>4.555356184637116</v>
+        <v>4.563914969934156</v>
       </c>
       <c r="S23">
-        <v>4.648187250242938</v>
+        <v>4.658735509685362</v>
       </c>
       <c r="T23">
-        <v>4.687766122459401</v>
+        <v>4.699569641979029</v>
       </c>
       <c r="U23">
-        <v>4.765729842499225</v>
+        <v>4.784975056114467</v>
       </c>
       <c r="V23">
-        <v>4.763333328589415</v>
+        <v>4.78443076854948</v>
       </c>
       <c r="W23">
-        <v>4.690191530439912</v>
+        <v>4.710279048800909</v>
       </c>
       <c r="X23">
-        <v>4.678848934110346</v>
+        <v>4.694510550833539</v>
       </c>
       <c r="Y23">
-        <v>4.772180835915502</v>
+        <v>4.785629800703173</v>
       </c>
       <c r="Z23">
-        <v>4.762611402519852</v>
+        <v>4.773999807833303</v>
       </c>
       <c r="AA23">
-        <v>4.772990280524954</v>
+        <v>4.781229735265098</v>
       </c>
       <c r="AB23">
-        <v>4.762233415595539</v>
+        <v>4.768046858320242</v>
       </c>
       <c r="AC23">
-        <v>4.787935097390137</v>
+        <v>4.79328677951996</v>
       </c>
       <c r="AD23">
-        <v>4.764614041846293</v>
+        <v>4.771482604490225</v>
       </c>
       <c r="AE23">
-        <v>4.783266181628608</v>
+        <v>4.789705535834371</v>
       </c>
       <c r="AF23">
-        <v>4.86483954262557</v>
+        <v>4.874691013265813</v>
       </c>
       <c r="AG23">
-        <v>4.979963643805283</v>
+        <v>4.994579815249722</v>
       </c>
       <c r="AH23">
-        <v>5.038534389465816</v>
+        <v>5.051807963733961</v>
       </c>
       <c r="AI23">
-        <v>5.118468576871925</v>
+        <v>5.132239698933622</v>
       </c>
       <c r="AJ23">
-        <v>5.181795248434892</v>
+        <v>5.194567381678089</v>
       </c>
       <c r="AK23">
-        <v>5.246930193572781</v>
+        <v>5.261849997888643</v>
       </c>
       <c r="AL23">
-        <v>5.34838792089473</v>
+        <v>5.367702168730028</v>
       </c>
       <c r="AM23">
-        <v>5.396748294402405</v>
+        <v>5.417831555157917</v>
       </c>
       <c r="AN23">
-        <v>5.492301665561988</v>
+        <v>5.511989656513679</v>
       </c>
     </row>
     <row r="24" spans="1:40">
@@ -11705,10 +11705,10 @@
         <v>3.945434</v>
       </c>
       <c r="M24">
-        <v>4.031566</v>
+        <v>4.031565999999999</v>
       </c>
       <c r="N24">
-        <v>4.115328</v>
+        <v>4.115327999999999</v>
       </c>
       <c r="O24">
         <v>4.132638</v>
@@ -11720,10 +11720,10 @@
         <v>4.219408</v>
       </c>
       <c r="R24">
-        <v>4.290602999999999</v>
+        <v>4.290603</v>
       </c>
       <c r="S24">
-        <v>4.354133000000001</v>
+        <v>4.354133</v>
       </c>
       <c r="T24">
         <v>4.384227</v>
@@ -11732,10 +11732,10 @@
         <v>4.354599</v>
       </c>
       <c r="V24">
-        <v>4.349363999999999</v>
+        <v>4.349364</v>
       </c>
       <c r="W24">
-        <v>4.309391999999999</v>
+        <v>4.309392</v>
       </c>
       <c r="X24">
         <v>4.382365</v>
@@ -11750,13 +11750,13 @@
         <v>4.617169</v>
       </c>
       <c r="AB24">
-        <v>4.651042000000001</v>
+        <v>4.651042</v>
       </c>
       <c r="AC24">
-        <v>4.685009000000001</v>
+        <v>4.685009</v>
       </c>
       <c r="AD24">
-        <v>4.635303</v>
+        <v>4.635303000000001</v>
       </c>
       <c r="AE24">
         <v>4.664851</v>
@@ -11765,16 +11765,16 @@
         <v>4.696754</v>
       </c>
       <c r="AG24">
-        <v>4.751483000000001</v>
+        <v>4.751483</v>
       </c>
       <c r="AH24">
-        <v>4.835949000000001</v>
+        <v>4.835949</v>
       </c>
       <c r="AI24">
         <v>4.914586</v>
       </c>
       <c r="AJ24">
-        <v>4.994373000000001</v>
+        <v>4.994373</v>
       </c>
       <c r="AK24">
         <v>5.03497</v>
@@ -11786,7 +11786,7 @@
         <v>5.115046</v>
       </c>
       <c r="AN24">
-        <v>5.236392</v>
+        <v>5.236391999999999</v>
       </c>
     </row>
     <row r="25" spans="1:40">
@@ -11803,112 +11803,112 @@
         <v>41</v>
       </c>
       <c r="E25">
-        <v>3.342170961237617</v>
+        <v>3.342374019609267</v>
       </c>
       <c r="F25">
-        <v>2.714807041582021</v>
+        <v>2.715002934268821</v>
       </c>
       <c r="G25">
-        <v>2.628586634723276</v>
+        <v>2.628591762575741</v>
       </c>
       <c r="H25">
-        <v>2.803354797860233</v>
+        <v>2.803446218772698</v>
       </c>
       <c r="I25">
-        <v>3.112958328647277</v>
+        <v>3.113223970951235</v>
       </c>
       <c r="J25">
-        <v>3.545775412800636</v>
+        <v>3.546118335608683</v>
       </c>
       <c r="K25">
-        <v>3.760858637677485</v>
+        <v>3.760999819619977</v>
       </c>
       <c r="L25">
-        <v>3.945505863951668</v>
+        <v>3.945517542125272</v>
       </c>
       <c r="M25">
-        <v>4.031551174461776</v>
+        <v>4.031549258820192</v>
       </c>
       <c r="N25">
-        <v>4.115379661167156</v>
+        <v>4.115387136649421</v>
       </c>
       <c r="O25">
-        <v>4.132795641806244</v>
+        <v>4.132824682435796</v>
       </c>
       <c r="P25">
-        <v>4.109817878960389</v>
+        <v>4.109910608512605</v>
       </c>
       <c r="Q25">
-        <v>4.219776464375522</v>
+        <v>4.219873236000796</v>
       </c>
       <c r="R25">
-        <v>4.291017245081147</v>
+        <v>4.291136236270597</v>
       </c>
       <c r="S25">
-        <v>4.354585617085137</v>
+        <v>4.354730719089211</v>
       </c>
       <c r="T25">
-        <v>4.384686823611102</v>
+        <v>4.384846912546688</v>
       </c>
       <c r="U25">
-        <v>4.355205434655194</v>
+        <v>4.355465834098168</v>
       </c>
       <c r="V25">
-        <v>4.349961561327848</v>
+        <v>4.350241214211247</v>
       </c>
       <c r="W25">
-        <v>4.30993424187564</v>
+        <v>4.310195270562377</v>
       </c>
       <c r="X25">
-        <v>4.382781418665202</v>
+        <v>4.382978234823819</v>
       </c>
       <c r="Y25">
-        <v>4.521521402983447</v>
+        <v>4.521686475014601</v>
       </c>
       <c r="Z25">
-        <v>4.551442335951879</v>
+        <v>4.551579850676317</v>
       </c>
       <c r="AA25">
-        <v>4.617382865262498</v>
+        <v>4.617480725119118</v>
       </c>
       <c r="AB25">
-        <v>4.651194015422909</v>
+        <v>4.651262109686486</v>
       </c>
       <c r="AC25">
-        <v>4.685149723943946</v>
+        <v>4.68521228920378</v>
       </c>
       <c r="AD25">
-        <v>4.635479552784891</v>
+        <v>4.63556022701002</v>
       </c>
       <c r="AE25">
-        <v>4.665011396414011</v>
+        <v>4.665086241849865</v>
       </c>
       <c r="AF25">
-        <v>4.696978654069172</v>
+        <v>4.697092850411447</v>
       </c>
       <c r="AG25">
-        <v>4.751783150087579</v>
+        <v>4.751951782035562</v>
       </c>
       <c r="AH25">
-        <v>4.836212187708882</v>
+        <v>4.836362707795735</v>
       </c>
       <c r="AI25">
-        <v>4.914848372784705</v>
+        <v>4.91500300992758</v>
       </c>
       <c r="AJ25">
-        <v>4.994612930828734</v>
+        <v>4.994755034097997</v>
       </c>
       <c r="AK25">
-        <v>5.035239410185941</v>
+        <v>5.035405004763163</v>
       </c>
       <c r="AL25">
-        <v>5.084724478331293</v>
+        <v>5.084939665190289</v>
       </c>
       <c r="AM25">
-        <v>5.115399905441996</v>
+        <v>5.115634278724627</v>
       </c>
       <c r="AN25">
-        <v>5.236709421577677</v>
+        <v>5.236924187841718</v>
       </c>
     </row>
     <row r="26" spans="1:40">
@@ -12400,112 +12400,112 @@
         <v>48</v>
       </c>
       <c r="E32">
-        <v>2.625386962361935</v>
+        <v>2.539808578674314</v>
       </c>
       <c r="F32">
-        <v>2.457114926332869</v>
+        <v>2.571581732518248</v>
       </c>
       <c r="G32">
-        <v>2.774541326813812</v>
+        <v>2.95229646601692</v>
       </c>
       <c r="H32">
-        <v>3.049298112060887</v>
+        <v>3.250934615948039</v>
       </c>
       <c r="I32">
-        <v>3.440131374269765</v>
+        <v>3.85496291730932</v>
       </c>
       <c r="J32">
-        <v>3.863244067419987</v>
+        <v>4.06224784181341</v>
       </c>
       <c r="K32">
-        <v>3.907952019483808</v>
+        <v>3.986207121430713</v>
       </c>
       <c r="L32">
-        <v>3.906165893434228</v>
+        <v>3.903406556771326</v>
       </c>
       <c r="M32">
-        <v>3.940049329103322</v>
+        <v>3.902554358883935</v>
       </c>
       <c r="N32">
-        <v>4.034744765426294</v>
+        <v>3.987993299758361</v>
       </c>
       <c r="O32">
-        <v>4.13565459823689</v>
+        <v>4.162546620622723</v>
       </c>
       <c r="P32">
-        <v>4.22540802084591</v>
+        <v>4.321845013095335</v>
       </c>
       <c r="Q32">
-        <v>4.319323679051911</v>
+        <v>4.384268955124551</v>
       </c>
       <c r="R32">
-        <v>4.403346332293339</v>
+        <v>4.464130473887298</v>
       </c>
       <c r="S32">
-        <v>4.474093619195033</v>
+        <v>4.534061194268705</v>
       </c>
       <c r="T32">
-        <v>4.497400032918896</v>
+        <v>4.553007384664462</v>
       </c>
       <c r="U32">
-        <v>4.515419661368177</v>
+        <v>4.572887022851467</v>
       </c>
       <c r="V32">
-        <v>4.510129094985989</v>
+        <v>4.568618980798626</v>
       </c>
       <c r="W32">
-        <v>4.463413221891722</v>
+        <v>4.533299667955248</v>
       </c>
       <c r="X32">
-        <v>4.483374481694284</v>
+        <v>4.544885195514355</v>
       </c>
       <c r="Y32">
-        <v>4.577160640261711</v>
+        <v>4.613509949298182</v>
       </c>
       <c r="Z32">
-        <v>4.589443908771567</v>
+        <v>4.624975332047599</v>
       </c>
       <c r="AA32">
-        <v>4.619274146063427</v>
+        <v>4.639184446266272</v>
       </c>
       <c r="AB32">
-        <v>4.627557794905156</v>
+        <v>4.639701772684784</v>
       </c>
       <c r="AC32">
-        <v>4.657439390461632</v>
+        <v>4.668131621283825</v>
       </c>
       <c r="AD32">
-        <v>4.631947250887517</v>
+        <v>4.654384502059406</v>
       </c>
       <c r="AE32">
-        <v>4.655619761336065</v>
+        <v>4.67210344187693</v>
       </c>
       <c r="AF32">
-        <v>4.708596836230843</v>
+        <v>4.722475212259111</v>
       </c>
       <c r="AG32">
-        <v>4.789643411987525</v>
+        <v>4.804878607666598</v>
       </c>
       <c r="AH32">
-        <v>4.863375972948043</v>
+        <v>4.884838201677312</v>
       </c>
       <c r="AI32">
-        <v>4.946617452384867</v>
+        <v>4.976836151048775</v>
       </c>
       <c r="AJ32">
-        <v>5.015638410825853</v>
+        <v>5.043279459117431</v>
       </c>
       <c r="AK32">
-        <v>5.080576883998645</v>
+        <v>5.117932744376665</v>
       </c>
       <c r="AL32">
-        <v>5.19199160981758</v>
+        <v>5.26180807908607</v>
       </c>
       <c r="AM32">
-        <v>5.242281171281333</v>
+        <v>5.337838301325473</v>
       </c>
       <c r="AN32">
-        <v>5.339282646552944</v>
+        <v>5.428286963136561</v>
       </c>
     </row>
     <row r="33" spans="1:40">
@@ -12637,112 +12637,112 @@
         <v>45</v>
       </c>
       <c r="E35">
-        <v>0.6993004179407093</v>
+        <v>0.5137826701316943</v>
       </c>
       <c r="F35">
-        <v>0.6336733393492101</v>
+        <v>0.5055349642740672</v>
       </c>
       <c r="G35">
-        <v>0.7823182985428471</v>
+        <v>0.6706447536639837</v>
       </c>
       <c r="H35">
-        <v>0.8875984447726897</v>
+        <v>0.7848327986257673</v>
       </c>
       <c r="I35">
-        <v>1.01565673418674</v>
+        <v>0.9900862294495781</v>
       </c>
       <c r="J35">
-        <v>1.142146209578957</v>
+        <v>1.08580271452091</v>
       </c>
       <c r="K35">
-        <v>1.14752513298395</v>
+        <v>1.052182800256374</v>
       </c>
       <c r="L35">
-        <v>1.138566332126782</v>
+        <v>1.009226938218243</v>
       </c>
       <c r="M35">
-        <v>1.14800129758759</v>
+        <v>0.9999735504313565</v>
       </c>
       <c r="N35">
-        <v>1.173825839334535</v>
+        <v>1.01939954138009</v>
       </c>
       <c r="O35">
-        <v>1.211330515248183</v>
+        <v>1.080189101201696</v>
       </c>
       <c r="P35">
-        <v>1.246448553984408</v>
+        <v>1.137459205243125</v>
       </c>
       <c r="Q35">
-        <v>1.267291199346698</v>
+        <v>1.150755632752364</v>
       </c>
       <c r="R35">
-        <v>1.284836639550565</v>
+        <v>1.170008236460278</v>
       </c>
       <c r="S35">
-        <v>1.301033531599955</v>
+        <v>1.187431256431312</v>
       </c>
       <c r="T35">
-        <v>1.297611093036122</v>
+        <v>1.179881309061085</v>
       </c>
       <c r="U35">
-        <v>1.263732926129739</v>
+        <v>1.146372715553758</v>
       </c>
       <c r="V35">
-        <v>1.253468936709163</v>
+        <v>1.13137257081019</v>
       </c>
       <c r="W35">
-        <v>1.231893307672202</v>
+        <v>1.105696003717933</v>
       </c>
       <c r="X35">
-        <v>1.230855424993259</v>
+        <v>1.096085327467086</v>
       </c>
       <c r="Y35">
-        <v>1.249911909981198</v>
+        <v>1.108905098909271</v>
       </c>
       <c r="Z35">
-        <v>1.241940838897415</v>
+        <v>1.100619460841461</v>
       </c>
       <c r="AA35">
-        <v>1.24151850760308</v>
+        <v>1.094458268550693</v>
       </c>
       <c r="AB35">
-        <v>1.22862372869597</v>
+        <v>1.075982618933416</v>
       </c>
       <c r="AC35">
-        <v>1.221525898049856</v>
+        <v>1.067398327287566</v>
       </c>
       <c r="AD35">
-        <v>1.202925832623233</v>
+        <v>1.049136497879649</v>
       </c>
       <c r="AE35">
-        <v>1.001708625967926</v>
+        <v>0.8286861382797982</v>
       </c>
       <c r="AF35">
-        <v>1.002790782048284</v>
+        <v>0.8318786130287457</v>
       </c>
       <c r="AG35">
-        <v>1.006360364835506</v>
+        <v>0.8432193379883983</v>
       </c>
       <c r="AH35">
-        <v>1.010074106389733</v>
+        <v>0.8530066315497552</v>
       </c>
       <c r="AI35">
-        <v>1.017846788981817</v>
+        <v>0.8675265540170203</v>
       </c>
       <c r="AJ35">
-        <v>1.020352138409891</v>
+        <v>0.8725921403560544</v>
       </c>
       <c r="AK35">
-        <v>1.024754340209072</v>
+        <v>0.8812486977430688</v>
       </c>
       <c r="AL35">
-        <v>1.037176718753786</v>
+        <v>0.9122807141246312</v>
       </c>
       <c r="AM35">
-        <v>1.036580024506712</v>
+        <v>0.9232841310372869</v>
       </c>
       <c r="AN35">
-        <v>1.048536253119065</v>
+        <v>0.9370024439042821</v>
       </c>
     </row>
     <row r="42" spans="1:40">
@@ -13941,7 +13941,7 @@
         <v>5.296823</v>
       </c>
       <c r="AI51">
-        <v>5.494125999999999</v>
+        <v>5.494126</v>
       </c>
       <c r="AJ51">
         <v>5.667797</v>
@@ -13976,7 +13976,7 @@
         <v>3.340231</v>
       </c>
       <c r="F52">
-        <v>3.390734999999999</v>
+        <v>3.390735</v>
       </c>
       <c r="G52">
         <v>3.89491</v>
@@ -14075,7 +14075,7 @@
         <v>5.992455</v>
       </c>
       <c r="AM52">
-        <v>6.140642999999999</v>
+        <v>6.140643</v>
       </c>
       <c r="AN52">
         <v>6.253783</v>
@@ -15424,112 +15424,112 @@
         <v>48</v>
       </c>
       <c r="E66">
-        <v>2.875245688135915</v>
+        <v>3.140900411097245</v>
       </c>
       <c r="F66">
-        <v>2.511325923476783</v>
+        <v>3.009345150223423</v>
       </c>
       <c r="G66">
-        <v>2.623433599413119</v>
+        <v>3.377139899399537</v>
       </c>
       <c r="H66">
-        <v>3.363978975354551</v>
+        <v>3.929982740948041</v>
       </c>
       <c r="I66">
-        <v>4.135987411931233</v>
+        <v>5.057381250982983</v>
       </c>
       <c r="J66">
-        <v>4.650579471614879</v>
+        <v>4.983461155907119</v>
       </c>
       <c r="K66">
-        <v>4.677953330025385</v>
+        <v>4.760557663064783</v>
       </c>
       <c r="L66">
-        <v>4.559811101040498</v>
+        <v>4.570905476682628</v>
       </c>
       <c r="M66">
-        <v>4.49766211878434</v>
+        <v>4.498568435194556</v>
       </c>
       <c r="N66">
-        <v>4.468160839151904</v>
+        <v>4.523319434383799</v>
       </c>
       <c r="O66">
-        <v>4.338460203751801</v>
+        <v>4.66935533612241</v>
       </c>
       <c r="P66">
-        <v>4.520778709177992</v>
+        <v>4.931895313205586</v>
       </c>
       <c r="Q66">
-        <v>4.698054558481802</v>
+        <v>4.975124670722075</v>
       </c>
       <c r="R66">
-        <v>4.756069398331563</v>
+        <v>5.02394634867685</v>
       </c>
       <c r="S66">
-        <v>4.852609664591447</v>
+        <v>5.103878552046484</v>
       </c>
       <c r="T66">
-        <v>4.905508438291328</v>
+        <v>5.141414095459856</v>
       </c>
       <c r="U66">
-        <v>4.820480781877331</v>
+        <v>5.091671847246062</v>
       </c>
       <c r="V66">
-        <v>4.774471981119564</v>
+        <v>5.070221276238126</v>
       </c>
       <c r="W66">
-        <v>4.687579338176701</v>
+        <v>5.02394671704509</v>
       </c>
       <c r="X66">
-        <v>4.716802357703643</v>
+        <v>5.057469536448013</v>
       </c>
       <c r="Y66">
-        <v>4.814919139688458</v>
+        <v>5.112075672899988</v>
       </c>
       <c r="Z66">
-        <v>4.836115639202213</v>
+        <v>5.14216894865779</v>
       </c>
       <c r="AA66">
-        <v>4.800729434991943</v>
+        <v>5.119896977735725</v>
       </c>
       <c r="AB66">
-        <v>4.921486645829948</v>
+        <v>5.178960701787192</v>
       </c>
       <c r="AC66">
-        <v>5.091409384428125</v>
+        <v>5.28552982551902</v>
       </c>
       <c r="AD66">
-        <v>4.961030452328036</v>
+        <v>5.226366131455075</v>
       </c>
       <c r="AE66">
-        <v>4.927266105930203</v>
+        <v>5.201809101711564</v>
       </c>
       <c r="AF66">
-        <v>4.995327904356108</v>
+        <v>5.254719246291137</v>
       </c>
       <c r="AG66">
-        <v>5.10186706088207</v>
+        <v>5.34450477928732</v>
       </c>
       <c r="AH66">
-        <v>5.190780527576595</v>
+        <v>5.446266733002318</v>
       </c>
       <c r="AI66">
-        <v>5.376756153391738</v>
+        <v>5.600023791662757</v>
       </c>
       <c r="AJ66">
-        <v>5.541558178082439</v>
+        <v>5.720771190532715</v>
       </c>
       <c r="AK66">
-        <v>5.713246596818906</v>
+        <v>5.843452267241653</v>
       </c>
       <c r="AL66">
-        <v>5.786286918770754</v>
+        <v>5.943159002314982</v>
       </c>
       <c r="AM66">
-        <v>5.599778419461817</v>
+        <v>5.913882094146694</v>
       </c>
       <c r="AN66">
-        <v>5.67861629215452</v>
+        <v>6.005881871354607</v>
       </c>
     </row>
     <row r="67" spans="1:40">
@@ -15661,112 +15661,112 @@
         <v>45</v>
       </c>
       <c r="E69">
-        <v>2.875245688135915</v>
+        <v>3.140900411097245</v>
       </c>
       <c r="F69">
-        <v>2.511325923476783</v>
+        <v>3.009345150223423</v>
       </c>
       <c r="G69">
-        <v>2.623433599413119</v>
+        <v>3.377139899399537</v>
       </c>
       <c r="H69">
-        <v>3.363978975354551</v>
+        <v>3.929982740948041</v>
       </c>
       <c r="I69">
-        <v>4.135987411931233</v>
+        <v>5.057381250982983</v>
       </c>
       <c r="J69">
-        <v>4.650579471614879</v>
+        <v>4.983461155907119</v>
       </c>
       <c r="K69">
-        <v>4.677953330025385</v>
+        <v>4.760557663064783</v>
       </c>
       <c r="L69">
-        <v>4.559811101040498</v>
+        <v>4.570905476682628</v>
       </c>
       <c r="M69">
-        <v>4.49766211878434</v>
+        <v>4.498568435194556</v>
       </c>
       <c r="N69">
-        <v>4.468160839151904</v>
+        <v>4.523319434383799</v>
       </c>
       <c r="O69">
-        <v>4.338460203751801</v>
+        <v>4.66935533612241</v>
       </c>
       <c r="P69">
-        <v>4.520778709177992</v>
+        <v>4.931895313205586</v>
       </c>
       <c r="Q69">
-        <v>4.698054558481802</v>
+        <v>4.975124670722075</v>
       </c>
       <c r="R69">
-        <v>4.756069398331563</v>
+        <v>5.02394634867685</v>
       </c>
       <c r="S69">
-        <v>4.852609664591447</v>
+        <v>5.103878552046484</v>
       </c>
       <c r="T69">
-        <v>4.905508438291328</v>
+        <v>5.141414095459856</v>
       </c>
       <c r="U69">
-        <v>4.820480781877331</v>
+        <v>5.091671847246062</v>
       </c>
       <c r="V69">
-        <v>4.774471981119564</v>
+        <v>5.070221276238126</v>
       </c>
       <c r="W69">
-        <v>4.687579338176701</v>
+        <v>5.02394671704509</v>
       </c>
       <c r="X69">
-        <v>4.716802357703643</v>
+        <v>5.057469536448013</v>
       </c>
       <c r="Y69">
-        <v>4.814919139688458</v>
+        <v>5.112075672899988</v>
       </c>
       <c r="Z69">
-        <v>4.836115639202213</v>
+        <v>5.14216894865779</v>
       </c>
       <c r="AA69">
-        <v>4.800729434991943</v>
+        <v>5.119896977735725</v>
       </c>
       <c r="AB69">
-        <v>4.921486645829948</v>
+        <v>5.178960701787192</v>
       </c>
       <c r="AC69">
-        <v>5.091409384428125</v>
+        <v>5.28552982551902</v>
       </c>
       <c r="AD69">
-        <v>4.961030452328036</v>
+        <v>5.226366131455075</v>
       </c>
       <c r="AE69">
-        <v>4.927266105930203</v>
+        <v>5.201809101711564</v>
       </c>
       <c r="AF69">
-        <v>4.995327904356108</v>
+        <v>5.254719246291137</v>
       </c>
       <c r="AG69">
-        <v>5.10186706088207</v>
+        <v>5.34450477928732</v>
       </c>
       <c r="AH69">
-        <v>5.190780527576595</v>
+        <v>5.446266733002318</v>
       </c>
       <c r="AI69">
-        <v>5.376756153391738</v>
+        <v>5.600023791662757</v>
       </c>
       <c r="AJ69">
-        <v>5.541558178082439</v>
+        <v>5.720771190532715</v>
       </c>
       <c r="AK69">
-        <v>5.713246596818906</v>
+        <v>5.843452267241653</v>
       </c>
       <c r="AL69">
-        <v>5.786286918770754</v>
+        <v>5.943159002314982</v>
       </c>
       <c r="AM69">
-        <v>5.599778419461817</v>
+        <v>5.913882094146694</v>
       </c>
       <c r="AN69">
-        <v>5.67861629215452</v>
+        <v>6.005881871354607</v>
       </c>
     </row>
     <row r="76" spans="1:40">
@@ -16965,7 +16965,7 @@
         <v>5.296823</v>
       </c>
       <c r="AI85">
-        <v>5.494125999999999</v>
+        <v>5.494126</v>
       </c>
       <c r="AJ85">
         <v>5.667797</v>
@@ -17090,7 +17090,7 @@
         <v>5.433559000000001</v>
       </c>
       <c r="AJ86">
-        <v>5.5047445</v>
+        <v>5.504744499999999</v>
       </c>
       <c r="AK86">
         <v>5.5616825</v>
@@ -17119,112 +17119,112 @@
         <v>35</v>
       </c>
       <c r="E87">
-        <v>2.338180514084465</v>
+        <v>2.337720744247768</v>
       </c>
       <c r="F87">
-        <v>2.30896634934203</v>
+        <v>2.377194623171236</v>
       </c>
       <c r="G87">
-        <v>2.76527563994046</v>
+        <v>2.826613058523213</v>
       </c>
       <c r="H87">
-        <v>3.112458536645809</v>
+        <v>3.14354835990108</v>
       </c>
       <c r="I87">
-        <v>3.434383283738724</v>
+        <v>3.455638850416743</v>
       </c>
       <c r="J87">
-        <v>3.637021170465523</v>
+        <v>3.673332379984537</v>
       </c>
       <c r="K87">
-        <v>3.702071021185183</v>
+        <v>3.729933218658346</v>
       </c>
       <c r="L87">
-        <v>3.655294211284734</v>
+        <v>3.681217035333017</v>
       </c>
       <c r="M87">
-        <v>3.646444130134786</v>
+        <v>3.672600397236866</v>
       </c>
       <c r="N87">
-        <v>3.726746831742358</v>
+        <v>3.751754823131238</v>
       </c>
       <c r="O87">
-        <v>3.967782140213587</v>
+        <v>3.991380444610056</v>
       </c>
       <c r="P87">
-        <v>4.150573224659054</v>
+        <v>4.175637965928243</v>
       </c>
       <c r="Q87">
-        <v>4.165901815431671</v>
+        <v>4.197226469495279</v>
       </c>
       <c r="R87">
-        <v>4.224193612490468</v>
+        <v>4.257945460870689</v>
       </c>
       <c r="S87">
-        <v>4.264235331438047</v>
+        <v>4.299196552361306</v>
       </c>
       <c r="T87">
-        <v>4.247443825422346</v>
+        <v>4.282945308911295</v>
       </c>
       <c r="U87">
-        <v>4.229917336173097</v>
+        <v>4.26610291278934</v>
       </c>
       <c r="V87">
-        <v>4.228345195311128</v>
+        <v>4.262548935890853</v>
       </c>
       <c r="W87">
-        <v>4.210459909542969</v>
+        <v>4.242653186488678</v>
       </c>
       <c r="X87">
-        <v>4.210003931281065</v>
+        <v>4.241626411050348</v>
       </c>
       <c r="Y87">
-        <v>4.249644864866467</v>
+        <v>4.28173466828217</v>
       </c>
       <c r="Z87">
-        <v>4.297224881279358</v>
+        <v>4.323059991339355</v>
       </c>
       <c r="AA87">
-        <v>4.32692715568604</v>
+        <v>4.349686502922061</v>
       </c>
       <c r="AB87">
-        <v>4.328761960572002</v>
+        <v>4.351042132927717</v>
       </c>
       <c r="AC87">
-        <v>4.35933710709143</v>
+        <v>4.381190962521819</v>
       </c>
       <c r="AD87">
-        <v>4.373308926080246</v>
+        <v>4.393062381488343</v>
       </c>
       <c r="AE87">
-        <v>4.372519449340315</v>
+        <v>4.397027341000129</v>
       </c>
       <c r="AF87">
-        <v>4.417877524181641</v>
+        <v>4.441955645620981</v>
       </c>
       <c r="AG87">
-        <v>4.489680435486226</v>
+        <v>4.513406460926077</v>
       </c>
       <c r="AH87">
-        <v>4.576543183729083</v>
+        <v>4.59878498291185</v>
       </c>
       <c r="AI87">
-        <v>4.668870336144081</v>
+        <v>4.690336676089836</v>
       </c>
       <c r="AJ87">
-        <v>4.736917373236853</v>
+        <v>4.75755776685487</v>
       </c>
       <c r="AK87">
-        <v>4.823858576899868</v>
+        <v>4.844652615768216</v>
       </c>
       <c r="AL87">
-        <v>4.995492275850195</v>
+        <v>5.024625158103968</v>
       </c>
       <c r="AM87">
-        <v>5.08552895103402</v>
+        <v>5.114120526235055</v>
       </c>
       <c r="AN87">
-        <v>5.169610279380362</v>
+        <v>5.195921910531478</v>
       </c>
     </row>
     <row r="88" spans="1:40">
@@ -17241,112 +17241,112 @@
         <v>36</v>
       </c>
       <c r="E88">
-        <v>2.32888436947067</v>
+        <v>2.328212678484897</v>
       </c>
       <c r="F88">
-        <v>2.365738088688126</v>
+        <v>2.386373114048713</v>
       </c>
       <c r="G88">
-        <v>2.858293122417309</v>
+        <v>2.89590023115816</v>
       </c>
       <c r="H88">
-        <v>3.166585458051684</v>
+        <v>3.190196046979321</v>
       </c>
       <c r="I88">
-        <v>3.516847847007364</v>
+        <v>3.549104484018847</v>
       </c>
       <c r="J88">
-        <v>3.82432035473587</v>
+        <v>3.912819664511228</v>
       </c>
       <c r="K88">
-        <v>3.857895804070842</v>
+        <v>3.938728765848869</v>
       </c>
       <c r="L88">
-        <v>3.779135834050612</v>
+        <v>3.848065257275774</v>
       </c>
       <c r="M88">
-        <v>3.765317823290052</v>
+        <v>3.833786295161679</v>
       </c>
       <c r="N88">
-        <v>3.841081188388718</v>
+        <v>3.908675111763849</v>
       </c>
       <c r="O88">
-        <v>4.032850926226782</v>
+        <v>4.078319303957683</v>
       </c>
       <c r="P88">
-        <v>4.194084853015838</v>
+        <v>4.231791272488936</v>
       </c>
       <c r="Q88">
-        <v>4.235808192531576</v>
+        <v>4.291394840310681</v>
       </c>
       <c r="R88">
-        <v>4.304415796425079</v>
+        <v>4.369191626026984</v>
       </c>
       <c r="S88">
-        <v>4.355085932655936</v>
+        <v>4.430984923802228</v>
       </c>
       <c r="T88">
-        <v>4.347828282169154</v>
+        <v>4.435305576333513</v>
       </c>
       <c r="U88">
-        <v>4.345260079368868</v>
+        <v>4.451179829443584</v>
       </c>
       <c r="V88">
-        <v>4.336842488908205</v>
+        <v>4.44170811238692</v>
       </c>
       <c r="W88">
-        <v>4.313464442229276</v>
+        <v>4.415031880619265</v>
       </c>
       <c r="X88">
-        <v>4.306315199272739</v>
+        <v>4.406661786403771</v>
       </c>
       <c r="Y88">
-        <v>4.351804756551071</v>
+        <v>4.458637733638484</v>
       </c>
       <c r="Z88">
-        <v>4.387285013402293</v>
+        <v>4.481478490984284</v>
       </c>
       <c r="AA88">
-        <v>4.409865521663124</v>
+        <v>4.496829427435871</v>
       </c>
       <c r="AB88">
-        <v>4.404318016123132</v>
+        <v>4.48787931421418</v>
       </c>
       <c r="AC88">
-        <v>4.428146953745234</v>
+        <v>4.507723558799264</v>
       </c>
       <c r="AD88">
-        <v>4.431511543368171</v>
+        <v>4.501389661719257</v>
       </c>
       <c r="AE88">
-        <v>4.422211916447159</v>
+        <v>4.493096396739014</v>
       </c>
       <c r="AF88">
-        <v>4.468795022918541</v>
+        <v>4.53958524983036</v>
       </c>
       <c r="AG88">
-        <v>4.546640753832325</v>
+        <v>4.619733544277826</v>
       </c>
       <c r="AH88">
-        <v>4.633778423717172</v>
+        <v>4.704622953001319</v>
       </c>
       <c r="AI88">
-        <v>4.729029101176382</v>
+        <v>4.800663733530265</v>
       </c>
       <c r="AJ88">
-        <v>4.796217934256975</v>
+        <v>4.866577011559999</v>
       </c>
       <c r="AK88">
-        <v>4.888066929256677</v>
+        <v>4.961128049575667</v>
       </c>
       <c r="AL88">
-        <v>5.035687358354554</v>
+        <v>5.101747006996207</v>
       </c>
       <c r="AM88">
-        <v>5.123967437192957</v>
+        <v>5.185056823953005</v>
       </c>
       <c r="AN88">
-        <v>5.213253549790106</v>
+        <v>5.273488705744862</v>
       </c>
     </row>
     <row r="89" spans="1:40">
@@ -17387,7 +17387,7 @@
         <v>3.945434</v>
       </c>
       <c r="M89">
-        <v>4.031566</v>
+        <v>4.031565999999999</v>
       </c>
       <c r="N89">
         <v>4.115328</v>
@@ -17402,13 +17402,13 @@
         <v>4.219408</v>
       </c>
       <c r="R89">
-        <v>4.290603</v>
+        <v>4.290603000000001</v>
       </c>
       <c r="S89">
-        <v>4.354133000000001</v>
+        <v>4.354133</v>
       </c>
       <c r="T89">
-        <v>4.384227</v>
+        <v>4.384226999999999</v>
       </c>
       <c r="U89">
         <v>4.354599</v>
@@ -17429,7 +17429,7 @@
         <v>4.551151</v>
       </c>
       <c r="AA89">
-        <v>4.617168999999999</v>
+        <v>4.617169000000001</v>
       </c>
       <c r="AB89">
         <v>4.651042</v>
@@ -17444,16 +17444,16 @@
         <v>4.664851</v>
       </c>
       <c r="AF89">
-        <v>4.696754000000001</v>
+        <v>4.696753999999999</v>
       </c>
       <c r="AG89">
         <v>4.751483</v>
       </c>
       <c r="AH89">
-        <v>4.835949000000001</v>
+        <v>4.835949</v>
       </c>
       <c r="AI89">
-        <v>4.914586000000001</v>
+        <v>4.914586</v>
       </c>
       <c r="AJ89">
         <v>4.994373</v>
@@ -17462,13 +17462,13 @@
         <v>5.03497</v>
       </c>
       <c r="AL89">
-        <v>5.084391000000001</v>
+        <v>5.084391</v>
       </c>
       <c r="AM89">
         <v>5.115046</v>
       </c>
       <c r="AN89">
-        <v>5.236392</v>
+        <v>5.236391999999999</v>
       </c>
     </row>
     <row r="90" spans="1:40">
@@ -17485,112 +17485,112 @@
         <v>38</v>
       </c>
       <c r="E90">
-        <v>2.388656881336668</v>
+        <v>2.370185212335868</v>
       </c>
       <c r="F90">
-        <v>2.419488846495041</v>
+        <v>2.592205324929106</v>
       </c>
       <c r="G90">
-        <v>2.923287128130008</v>
+        <v>3.093615495837335</v>
       </c>
       <c r="H90">
-        <v>3.241583219878733</v>
+        <v>3.326031321644784</v>
       </c>
       <c r="I90">
-        <v>3.710263979317626</v>
+        <v>3.721813463237</v>
       </c>
       <c r="J90">
-        <v>4.226429409797435</v>
+        <v>4.225062793630887</v>
       </c>
       <c r="K90">
-        <v>4.157986061007843</v>
+        <v>4.18092883831807</v>
       </c>
       <c r="L90">
-        <v>4.038127070554061</v>
+        <v>4.069061117173979</v>
       </c>
       <c r="M90">
-        <v>4.04812697538784</v>
+        <v>4.068834080114953</v>
       </c>
       <c r="N90">
-        <v>4.154990758580036</v>
+        <v>4.158185041228432</v>
       </c>
       <c r="O90">
-        <v>4.27029881191342</v>
+        <v>4.289337880770867</v>
       </c>
       <c r="P90">
-        <v>4.415813535093046</v>
+        <v>4.443448959704439</v>
       </c>
       <c r="Q90">
-        <v>4.527025055067874</v>
+        <v>4.555208487226432</v>
       </c>
       <c r="R90">
-        <v>4.632084679049335</v>
+        <v>4.657557631346086</v>
       </c>
       <c r="S90">
-        <v>4.721579891076015</v>
+        <v>4.739911777372672</v>
       </c>
       <c r="T90">
-        <v>4.75505259390767</v>
+        <v>4.766743564330122</v>
       </c>
       <c r="U90">
-        <v>4.828114529428784</v>
+        <v>4.822338185854095</v>
       </c>
       <c r="V90">
-        <v>4.824037024885913</v>
+        <v>4.815325886849581</v>
       </c>
       <c r="W90">
-        <v>4.762182658821353</v>
+        <v>4.764800121517715</v>
       </c>
       <c r="X90">
-        <v>4.745488234522201</v>
+        <v>4.75350063950976</v>
       </c>
       <c r="Y90">
-        <v>4.821123020375986</v>
+        <v>4.822938639490955</v>
       </c>
       <c r="Z90">
-        <v>4.804988461377675</v>
+        <v>4.807381558346307</v>
       </c>
       <c r="AA90">
-        <v>4.803023752708611</v>
+        <v>4.804021170679002</v>
       </c>
       <c r="AB90">
-        <v>4.79065140527464</v>
+        <v>4.794437159215779</v>
       </c>
       <c r="AC90">
-        <v>4.816109123146181</v>
+        <v>4.818842887688788</v>
       </c>
       <c r="AD90">
-        <v>4.797525724158435</v>
+        <v>4.798351790012449</v>
       </c>
       <c r="AE90">
-        <v>4.826275904063359</v>
+        <v>4.830098950858171</v>
       </c>
       <c r="AF90">
-        <v>4.900604072599741</v>
+        <v>4.893265033425768</v>
       </c>
       <c r="AG90">
-        <v>5.009189786088527</v>
+        <v>4.991234941824593</v>
       </c>
       <c r="AH90">
-        <v>5.069627254586835</v>
+        <v>5.056497436574832</v>
       </c>
       <c r="AI90">
-        <v>5.154321424788351</v>
+        <v>5.144468999606922</v>
       </c>
       <c r="AJ90">
-        <v>5.214043520413044</v>
+        <v>5.204112825441701</v>
       </c>
       <c r="AK90">
-        <v>5.294471714466043</v>
+        <v>5.291432304338421</v>
       </c>
       <c r="AL90">
-        <v>5.447541952178693</v>
+        <v>5.46234683007983</v>
       </c>
       <c r="AM90">
-        <v>5.503244418585246</v>
+        <v>5.522020061788072</v>
       </c>
       <c r="AN90">
-        <v>5.582891685523908</v>
+        <v>5.596493321222176</v>
       </c>
     </row>
     <row r="91" spans="1:40">
@@ -17607,112 +17607,112 @@
         <v>39</v>
       </c>
       <c r="E91">
-        <v>2.577037759681038</v>
+        <v>2.596372188944355</v>
       </c>
       <c r="F91">
-        <v>2.27524731890595</v>
+        <v>2.289684082705791</v>
       </c>
       <c r="G91">
-        <v>2.708884329571768</v>
+        <v>2.709208709455644</v>
       </c>
       <c r="H91">
-        <v>3.094298568798774</v>
+        <v>3.099949211588966</v>
       </c>
       <c r="I91">
-        <v>3.616452993185748</v>
+        <v>3.632726448061768</v>
       </c>
       <c r="J91">
-        <v>4.132262299196727</v>
+        <v>4.153700829124277</v>
       </c>
       <c r="K91">
-        <v>4.074929867688717</v>
+        <v>4.084632885848783</v>
       </c>
       <c r="L91">
-        <v>3.98959370830605</v>
+        <v>3.990442604487964</v>
       </c>
       <c r="M91">
-        <v>4.022562881483993</v>
+        <v>4.022423387483087</v>
       </c>
       <c r="N91">
-        <v>4.146762568937773</v>
+        <v>4.147302583177132</v>
       </c>
       <c r="O91">
-        <v>4.229887908386199</v>
+        <v>4.23198121625672</v>
       </c>
       <c r="P91">
-        <v>4.341732879840762</v>
+        <v>4.348302918190742</v>
       </c>
       <c r="Q91">
-        <v>4.45244959762339</v>
+        <v>4.459381467727225</v>
       </c>
       <c r="R91">
-        <v>4.555356184637116</v>
+        <v>4.563914969934156</v>
       </c>
       <c r="S91">
-        <v>4.648187250242938</v>
+        <v>4.658735509685362</v>
       </c>
       <c r="T91">
-        <v>4.687766122459401</v>
+        <v>4.699569641979029</v>
       </c>
       <c r="U91">
-        <v>4.765729842499225</v>
+        <v>4.784975056114467</v>
       </c>
       <c r="V91">
-        <v>4.763333328589415</v>
+        <v>4.78443076854948</v>
       </c>
       <c r="W91">
-        <v>4.690191530439912</v>
+        <v>4.710279048800909</v>
       </c>
       <c r="X91">
-        <v>4.678848934110346</v>
+        <v>4.694510550833539</v>
       </c>
       <c r="Y91">
-        <v>4.772180835915502</v>
+        <v>4.785629800703173</v>
       </c>
       <c r="Z91">
-        <v>4.762611402519852</v>
+        <v>4.773999807833303</v>
       </c>
       <c r="AA91">
-        <v>4.772990280524954</v>
+        <v>4.781229735265098</v>
       </c>
       <c r="AB91">
-        <v>4.762233415595539</v>
+        <v>4.768046858320242</v>
       </c>
       <c r="AC91">
-        <v>4.787935097390137</v>
+        <v>4.79328677951996</v>
       </c>
       <c r="AD91">
-        <v>4.764614041846293</v>
+        <v>4.771482604490225</v>
       </c>
       <c r="AE91">
-        <v>4.783266181628608</v>
+        <v>4.789705535834371</v>
       </c>
       <c r="AF91">
-        <v>4.86483954262557</v>
+        <v>4.874691013265813</v>
       </c>
       <c r="AG91">
-        <v>4.979963643805283</v>
+        <v>4.994579815249722</v>
       </c>
       <c r="AH91">
-        <v>5.038534389465816</v>
+        <v>5.051807963733961</v>
       </c>
       <c r="AI91">
-        <v>5.118468576871925</v>
+        <v>5.132239698933622</v>
       </c>
       <c r="AJ91">
-        <v>5.181795248434892</v>
+        <v>5.194567381678089</v>
       </c>
       <c r="AK91">
-        <v>5.246930193572781</v>
+        <v>5.261849997888643</v>
       </c>
       <c r="AL91">
-        <v>5.34838792089473</v>
+        <v>5.367702168730028</v>
       </c>
       <c r="AM91">
-        <v>5.396748294402405</v>
+        <v>5.417831555157917</v>
       </c>
       <c r="AN91">
-        <v>5.492301665561988</v>
+        <v>5.511989656513679</v>
       </c>
     </row>
     <row r="92" spans="1:40">
@@ -17753,10 +17753,10 @@
         <v>3.945434</v>
       </c>
       <c r="M92">
-        <v>4.031566</v>
+        <v>4.031565999999999</v>
       </c>
       <c r="N92">
-        <v>4.115328</v>
+        <v>4.115327999999999</v>
       </c>
       <c r="O92">
         <v>4.132638</v>
@@ -17768,10 +17768,10 @@
         <v>4.219408</v>
       </c>
       <c r="R92">
-        <v>4.290602999999999</v>
+        <v>4.290603</v>
       </c>
       <c r="S92">
-        <v>4.354133000000001</v>
+        <v>4.354133</v>
       </c>
       <c r="T92">
         <v>4.384227</v>
@@ -17780,10 +17780,10 @@
         <v>4.354599</v>
       </c>
       <c r="V92">
-        <v>4.349363999999999</v>
+        <v>4.349364</v>
       </c>
       <c r="W92">
-        <v>4.309391999999999</v>
+        <v>4.309392</v>
       </c>
       <c r="X92">
         <v>4.382365</v>
@@ -17798,13 +17798,13 @@
         <v>4.617169</v>
       </c>
       <c r="AB92">
-        <v>4.651042000000001</v>
+        <v>4.651042</v>
       </c>
       <c r="AC92">
-        <v>4.685009000000001</v>
+        <v>4.685009</v>
       </c>
       <c r="AD92">
-        <v>4.635303</v>
+        <v>4.635303000000001</v>
       </c>
       <c r="AE92">
         <v>4.664851</v>
@@ -17813,16 +17813,16 @@
         <v>4.696754</v>
       </c>
       <c r="AG92">
-        <v>4.751483000000001</v>
+        <v>4.751483</v>
       </c>
       <c r="AH92">
-        <v>4.835949000000001</v>
+        <v>4.835949</v>
       </c>
       <c r="AI92">
         <v>4.914586</v>
       </c>
       <c r="AJ92">
-        <v>4.994373000000001</v>
+        <v>4.994373</v>
       </c>
       <c r="AK92">
         <v>5.03497</v>
@@ -17834,7 +17834,7 @@
         <v>5.115046</v>
       </c>
       <c r="AN92">
-        <v>5.236392</v>
+        <v>5.236391999999999</v>
       </c>
     </row>
     <row r="93" spans="1:40">
@@ -17851,112 +17851,112 @@
         <v>41</v>
       </c>
       <c r="E93">
-        <v>3.342170961237617</v>
+        <v>3.342374019609267</v>
       </c>
       <c r="F93">
-        <v>2.714807041582021</v>
+        <v>2.715002934268821</v>
       </c>
       <c r="G93">
-        <v>2.628586634723276</v>
+        <v>2.628591762575741</v>
       </c>
       <c r="H93">
-        <v>2.803354797860233</v>
+        <v>2.803446218772698</v>
       </c>
       <c r="I93">
-        <v>3.112958328647277</v>
+        <v>3.113223970951235</v>
       </c>
       <c r="J93">
-        <v>3.545775412800636</v>
+        <v>3.546118335608683</v>
       </c>
       <c r="K93">
-        <v>3.760858637677485</v>
+        <v>3.760999819619977</v>
       </c>
       <c r="L93">
-        <v>3.945505863951668</v>
+        <v>3.945517542125272</v>
       </c>
       <c r="M93">
-        <v>4.031551174461776</v>
+        <v>4.031549258820192</v>
       </c>
       <c r="N93">
-        <v>4.115379661167156</v>
+        <v>4.115387136649421</v>
       </c>
       <c r="O93">
-        <v>4.132795641806244</v>
+        <v>4.132824682435796</v>
       </c>
       <c r="P93">
-        <v>4.109817878960389</v>
+        <v>4.109910608512605</v>
       </c>
       <c r="Q93">
-        <v>4.219776464375522</v>
+        <v>4.219873236000796</v>
       </c>
       <c r="R93">
-        <v>4.291017245081147</v>
+        <v>4.291136236270597</v>
       </c>
       <c r="S93">
-        <v>4.354585617085137</v>
+        <v>4.354730719089211</v>
       </c>
       <c r="T93">
-        <v>4.384686823611102</v>
+        <v>4.384846912546688</v>
       </c>
       <c r="U93">
-        <v>4.355205434655194</v>
+        <v>4.355465834098168</v>
       </c>
       <c r="V93">
-        <v>4.349961561327848</v>
+        <v>4.350241214211247</v>
       </c>
       <c r="W93">
-        <v>4.30993424187564</v>
+        <v>4.310195270562377</v>
       </c>
       <c r="X93">
-        <v>4.382781418665202</v>
+        <v>4.382978234823819</v>
       </c>
       <c r="Y93">
-        <v>4.521521402983447</v>
+        <v>4.521686475014601</v>
       </c>
       <c r="Z93">
-        <v>4.551442335951879</v>
+        <v>4.551579850676317</v>
       </c>
       <c r="AA93">
-        <v>4.617382865262498</v>
+        <v>4.617480725119118</v>
       </c>
       <c r="AB93">
-        <v>4.651194015422909</v>
+        <v>4.651262109686486</v>
       </c>
       <c r="AC93">
-        <v>4.685149723943946</v>
+        <v>4.68521228920378</v>
       </c>
       <c r="AD93">
-        <v>4.635479552784891</v>
+        <v>4.63556022701002</v>
       </c>
       <c r="AE93">
-        <v>4.665011396414011</v>
+        <v>4.665086241849865</v>
       </c>
       <c r="AF93">
-        <v>4.696978654069172</v>
+        <v>4.697092850411447</v>
       </c>
       <c r="AG93">
-        <v>4.751783150087579</v>
+        <v>4.751951782035562</v>
       </c>
       <c r="AH93">
-        <v>4.836212187708882</v>
+        <v>4.836362707795735</v>
       </c>
       <c r="AI93">
-        <v>4.914848372784705</v>
+        <v>4.91500300992758</v>
       </c>
       <c r="AJ93">
-        <v>4.994612930828734</v>
+        <v>4.994755034097997</v>
       </c>
       <c r="AK93">
-        <v>5.035239410185941</v>
+        <v>5.035405004763163</v>
       </c>
       <c r="AL93">
-        <v>5.084724478331293</v>
+        <v>5.084939665190289</v>
       </c>
       <c r="AM93">
-        <v>5.115399905441996</v>
+        <v>5.115634278724627</v>
       </c>
       <c r="AN93">
-        <v>5.236709421577677</v>
+        <v>5.236924187841718</v>
       </c>
     </row>
     <row r="94" spans="1:40">
@@ -18448,112 +18448,112 @@
         <v>48</v>
       </c>
       <c r="E100">
-        <v>2.640597312828215</v>
+        <v>2.695383699257596</v>
       </c>
       <c r="F100">
-        <v>2.462306435994893</v>
+        <v>2.684851777677452</v>
       </c>
       <c r="G100">
-        <v>2.76722534853248</v>
+        <v>3.057138998120339</v>
       </c>
       <c r="H100">
-        <v>3.071271958946017</v>
+        <v>3.436053053449371</v>
       </c>
       <c r="I100">
-        <v>3.484248839677038</v>
+        <v>4.212229583146447</v>
       </c>
       <c r="J100">
-        <v>3.910993713062277</v>
+        <v>4.322884987225905</v>
       </c>
       <c r="K100">
-        <v>3.95130518986725</v>
+        <v>4.199494866629972</v>
       </c>
       <c r="L100">
-        <v>3.94066388102293</v>
+        <v>4.083459714688076</v>
       </c>
       <c r="M100">
-        <v>3.967890197666541</v>
+        <v>4.060846566374233</v>
       </c>
       <c r="N100">
-        <v>4.055723114516174</v>
+        <v>4.128049202066934</v>
       </c>
       <c r="O100">
-        <v>4.145931806562804</v>
+        <v>4.293701359428643</v>
       </c>
       <c r="P100">
-        <v>4.23945571809335</v>
+        <v>4.483042304342947</v>
       </c>
       <c r="Q100">
-        <v>4.336572089878335</v>
+        <v>4.53993886248068</v>
       </c>
       <c r="R100">
-        <v>4.419238858779036</v>
+        <v>4.610585589297526</v>
       </c>
       <c r="S100">
-        <v>4.490655965669201</v>
+        <v>4.683397824239812</v>
       </c>
       <c r="T100">
-        <v>4.514725119251606</v>
+        <v>4.707817832587762</v>
       </c>
       <c r="U100">
-        <v>4.528685092835858</v>
+        <v>4.707410553080367</v>
       </c>
       <c r="V100">
-        <v>4.52179412399066</v>
+        <v>4.69816128308346</v>
       </c>
       <c r="W100">
-        <v>4.473591176383201</v>
+        <v>4.659637100490762</v>
       </c>
       <c r="X100">
-        <v>4.493979489233679</v>
+        <v>4.677490377920133</v>
       </c>
       <c r="Y100">
-        <v>4.588081609702718</v>
+        <v>4.742079809413193</v>
       </c>
       <c r="Z100">
-        <v>4.600796286718718</v>
+        <v>4.758826447771452</v>
       </c>
       <c r="AA100">
-        <v>4.627854089502804</v>
+        <v>4.762497776684783</v>
       </c>
       <c r="AB100">
-        <v>4.641228867383894</v>
+        <v>4.779942506812928</v>
       </c>
       <c r="AC100">
-        <v>4.676875723334943</v>
+        <v>4.831269518117522</v>
       </c>
       <c r="AD100">
-        <v>4.64677785595582</v>
+        <v>4.80408360518333</v>
       </c>
       <c r="AE100">
-        <v>4.667997381606463</v>
+        <v>4.809519700790631</v>
       </c>
       <c r="AF100">
-        <v>4.721647903692912</v>
+        <v>4.86061546901337</v>
       </c>
       <c r="AG100">
-        <v>4.803848440673581</v>
+        <v>4.945113203727285</v>
       </c>
       <c r="AH100">
-        <v>4.878092701009526</v>
+        <v>5.031262994755678</v>
       </c>
       <c r="AI100">
-        <v>4.965343988244213</v>
+        <v>5.141170007285941</v>
       </c>
       <c r="AJ100">
-        <v>5.037599592117525</v>
+        <v>5.223526388538302</v>
       </c>
       <c r="AK100">
-        <v>5.105666664861059</v>
+        <v>5.31232472534681</v>
       </c>
       <c r="AL100">
-        <v>5.214900622833356</v>
+        <v>5.442842875622413</v>
       </c>
       <c r="AM100">
-        <v>5.256563958522449</v>
+        <v>5.487971099025077</v>
       </c>
       <c r="AN100">
-        <v>5.352841043509275</v>
+        <v>5.578721627237863</v>
       </c>
     </row>
     <row r="101" spans="1:40">
@@ -18685,112 +18685,112 @@
         <v>45</v>
       </c>
       <c r="E103">
-        <v>0.723549804235831</v>
+        <v>0.6501682398590294</v>
       </c>
       <c r="F103">
-        <v>0.6611171901566932</v>
+        <v>0.6296694517430325</v>
       </c>
       <c r="G103">
-        <v>0.8085542453572053</v>
+        <v>0.8160570997714344</v>
       </c>
       <c r="H103">
-        <v>0.9244355362417224</v>
+        <v>0.9807813706310479</v>
       </c>
       <c r="I103">
-        <v>1.061034101170423</v>
+        <v>1.300457948553292</v>
       </c>
       <c r="J103">
-        <v>1.192209899380808</v>
+        <v>1.38158426298704</v>
       </c>
       <c r="K103">
-        <v>1.193968109167184</v>
+        <v>1.320577679231595</v>
       </c>
       <c r="L103">
-        <v>1.180123448802264</v>
+        <v>1.254614888464036</v>
       </c>
       <c r="M103">
-        <v>1.186064646789242</v>
+        <v>1.23388483649591</v>
       </c>
       <c r="N103">
-        <v>1.209616489704185</v>
+        <v>1.250610082982852</v>
       </c>
       <c r="O103">
-        <v>1.244676952839478</v>
+        <v>1.319193561889237</v>
       </c>
       <c r="P103">
-        <v>1.280659910204858</v>
+        <v>1.398376523346421</v>
       </c>
       <c r="Q103">
-        <v>1.302201206129419</v>
+        <v>1.413034350817859</v>
       </c>
       <c r="R103">
-        <v>1.319625670738126</v>
+        <v>1.432934936082509</v>
       </c>
       <c r="S103">
-        <v>1.335841690723689</v>
+        <v>1.454759333428926</v>
       </c>
       <c r="T103">
-        <v>1.331758516550484</v>
+        <v>1.448139969012274</v>
       </c>
       <c r="U103">
-        <v>1.29749110367283</v>
+        <v>1.409539411065307</v>
       </c>
       <c r="V103">
-        <v>1.286717761943025</v>
+        <v>1.389081447716395</v>
       </c>
       <c r="W103">
-        <v>1.265043824899598</v>
+        <v>1.356465914516772</v>
       </c>
       <c r="X103">
-        <v>1.264272333695669</v>
+        <v>1.346916651502776</v>
       </c>
       <c r="Y103">
-        <v>1.285163642907749</v>
+        <v>1.360166649359337</v>
       </c>
       <c r="Z103">
-        <v>1.277474293436637</v>
+        <v>1.351194125002482</v>
       </c>
       <c r="AA103">
-        <v>1.277965744313363</v>
+        <v>1.339791660119842</v>
       </c>
       <c r="AB103">
-        <v>1.265966534429863</v>
+        <v>1.32499199425167</v>
       </c>
       <c r="AC103">
-        <v>1.258907718350649</v>
+        <v>1.323901878347298</v>
       </c>
       <c r="AD103">
-        <v>1.238948461021241</v>
+        <v>1.296783471259038</v>
       </c>
       <c r="AE103">
-        <v>1.041021092664976</v>
+        <v>1.094867377407464</v>
       </c>
       <c r="AF103">
-        <v>1.042046534486345</v>
+        <v>1.099360735235635</v>
       </c>
       <c r="AG103">
-        <v>1.045972335045867</v>
+        <v>1.114601617887701</v>
       </c>
       <c r="AH103">
-        <v>1.049465428378673</v>
+        <v>1.129291470712822</v>
       </c>
       <c r="AI103">
-        <v>1.05734600111655</v>
+        <v>1.154392614566891</v>
       </c>
       <c r="AJ103">
-        <v>1.059622753395293</v>
+        <v>1.166793006874189</v>
       </c>
       <c r="AK103">
-        <v>1.06309983696823</v>
+        <v>1.182974310025358</v>
       </c>
       <c r="AL103">
-        <v>1.074548580444379</v>
+        <v>1.21729638047978</v>
       </c>
       <c r="AM103">
-        <v>1.073144169748492</v>
+        <v>1.219478161860827</v>
       </c>
       <c r="AN103">
-        <v>1.085793879850372</v>
+        <v>1.236836058481551</v>
       </c>
     </row>
   </sheetData>
